--- a/output.xlsx
+++ b/output.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11003"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinabongiovanni/PycharmProjects/tesi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0903F588-C7F5-1049-BAE3-CE5426E9B507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D15D62-6291-084B-8724-16034AEFF62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="16860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By Codice" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="366">
   <si>
     <t>Codice Ateco</t>
   </si>
@@ -29,31 +29,61 @@
     <t>Business Area</t>
   </si>
   <si>
+    <t>010000</t>
+  </si>
+  <si>
+    <t>P&amp;O - Production and Operations</t>
+  </si>
+  <si>
     <t>011000</t>
   </si>
   <si>
-    <t>P&amp;O - Production and Operations</t>
-  </si>
-  <si>
     <t>011110</t>
   </si>
   <si>
+    <t>011120</t>
+  </si>
+  <si>
+    <t>011150</t>
+  </si>
+  <si>
+    <t>011160</t>
+  </si>
+  <si>
     <t>011200</t>
   </si>
   <si>
     <t>011210</t>
   </si>
   <si>
+    <t>011220</t>
+  </si>
+  <si>
+    <t>011240</t>
+  </si>
+  <si>
+    <t>011300</t>
+  </si>
+  <si>
     <t>011310</t>
   </si>
   <si>
     <t>011320</t>
   </si>
   <si>
+    <t>011330</t>
+  </si>
+  <si>
     <t>011340</t>
   </si>
   <si>
-    <t>012530</t>
+    <t>012210</t>
+  </si>
+  <si>
+    <t>012300</t>
+  </si>
+  <si>
+    <t>012550</t>
   </si>
   <si>
     <t>013000</t>
@@ -80,7 +110,22 @@
     <t>020200</t>
   </si>
   <si>
-    <t>150000</t>
+    <t>050220</t>
+  </si>
+  <si>
+    <t>153000</t>
+  </si>
+  <si>
+    <t>153200</t>
+  </si>
+  <si>
+    <t>153300</t>
+  </si>
+  <si>
+    <t>154110</t>
+  </si>
+  <si>
+    <t>155120</t>
   </si>
   <si>
     <t>155200</t>
@@ -89,10 +134,13 @@
     <t>158110</t>
   </si>
   <si>
+    <t>158120</t>
+  </si>
+  <si>
     <t>158121</t>
   </si>
   <si>
-    <t>158122</t>
+    <t>158200</t>
   </si>
   <si>
     <t>158400</t>
@@ -101,21 +149,51 @@
     <t>158500</t>
   </si>
   <si>
+    <t>158601</t>
+  </si>
+  <si>
+    <t>158902</t>
+  </si>
+  <si>
+    <t>158903</t>
+  </si>
+  <si>
     <t>159310</t>
   </si>
   <si>
+    <t>159600</t>
+  </si>
+  <si>
+    <t>171000</t>
+  </si>
+  <si>
+    <t>172000</t>
+  </si>
+  <si>
     <t>173000</t>
   </si>
   <si>
     <t>174010</t>
   </si>
   <si>
+    <t>177000</t>
+  </si>
+  <si>
     <t>177200</t>
   </si>
   <si>
+    <t>182210</t>
+  </si>
+  <si>
     <t>182220</t>
   </si>
   <si>
+    <t>182410</t>
+  </si>
+  <si>
+    <t>192000</t>
+  </si>
+  <si>
     <t>201000</t>
   </si>
   <si>
@@ -125,67 +203,199 @@
     <t>203020</t>
   </si>
   <si>
+    <t>204000</t>
+  </si>
+  <si>
+    <t>205110</t>
+  </si>
+  <si>
+    <t>205220</t>
+  </si>
+  <si>
     <t>212000</t>
   </si>
   <si>
+    <t>212100</t>
+  </si>
+  <si>
     <t>212300</t>
   </si>
   <si>
-    <t>212400</t>
-  </si>
-  <si>
-    <t>221000</t>
+    <t>212500</t>
+  </si>
+  <si>
+    <t>221100</t>
+  </si>
+  <si>
+    <t>221200</t>
+  </si>
+  <si>
+    <t>221300</t>
+  </si>
+  <si>
+    <t>221500</t>
+  </si>
+  <si>
+    <t>222000</t>
   </si>
   <si>
     <t>222200</t>
   </si>
   <si>
-    <t>222400</t>
+    <t>222300</t>
+  </si>
+  <si>
+    <t>241500</t>
+  </si>
+  <si>
+    <t>251300</t>
+  </si>
+  <si>
+    <t>252000</t>
+  </si>
+  <si>
+    <t>252200</t>
+  </si>
+  <si>
+    <t>252301</t>
   </si>
   <si>
     <t>252400</t>
   </si>
   <si>
+    <t>261100</t>
+  </si>
+  <si>
     <t>262100</t>
   </si>
   <si>
+    <t>267010</t>
+  </si>
+  <si>
+    <t>267020</t>
+  </si>
+  <si>
     <t>281100</t>
   </si>
   <si>
+    <t>281210</t>
+  </si>
+  <si>
+    <t>282100</t>
+  </si>
+  <si>
+    <t>285100</t>
+  </si>
+  <si>
     <t>285200</t>
   </si>
   <si>
+    <t>286300</t>
+  </si>
+  <si>
+    <t>287300</t>
+  </si>
+  <si>
+    <t>287530</t>
+  </si>
+  <si>
+    <t>290000</t>
+  </si>
+  <si>
+    <t>291300</t>
+  </si>
+  <si>
+    <t>292432</t>
+  </si>
+  <si>
+    <t>292461</t>
+  </si>
+  <si>
+    <t>292463</t>
+  </si>
+  <si>
+    <t>292465</t>
+  </si>
+  <si>
+    <t>297100</t>
+  </si>
+  <si>
     <t>300200</t>
   </si>
   <si>
     <t>312010</t>
   </si>
   <si>
-    <t>331030</t>
+    <t>314000</t>
+  </si>
+  <si>
+    <t>316210</t>
+  </si>
+  <si>
+    <t>316220</t>
+  </si>
+  <si>
+    <t>321000</t>
+  </si>
+  <si>
+    <t>331040</t>
   </si>
   <si>
     <t>351200</t>
   </si>
   <si>
+    <t>354220</t>
+  </si>
+  <si>
+    <t>355010</t>
+  </si>
+  <si>
     <t>361000</t>
   </si>
   <si>
-    <t>364000</t>
+    <t>361110</t>
+  </si>
+  <si>
+    <t>361220</t>
+  </si>
+  <si>
+    <t>361400</t>
+  </si>
+  <si>
+    <t>361411</t>
+  </si>
+  <si>
+    <t>361413</t>
+  </si>
+  <si>
+    <t>361500</t>
+  </si>
+  <si>
+    <t>362210</t>
+  </si>
+  <si>
+    <t>366100</t>
+  </si>
+  <si>
+    <t>366351</t>
   </si>
   <si>
     <t>366352</t>
   </si>
   <si>
-    <t>370000</t>
-  </si>
-  <si>
-    <t>371010</t>
-  </si>
-  <si>
     <t>372000</t>
   </si>
   <si>
-    <t>450000</t>
+    <t>372020</t>
+  </si>
+  <si>
+    <t>401100</t>
+  </si>
+  <si>
+    <t>401300</t>
+  </si>
+  <si>
+    <t>410000</t>
   </si>
   <si>
     <t>451100</t>
@@ -203,9 +413,18 @@
     <t>452500</t>
   </si>
   <si>
+    <t>453100</t>
+  </si>
+  <si>
     <t>453101</t>
   </si>
   <si>
+    <t>453102</t>
+  </si>
+  <si>
+    <t>453103</t>
+  </si>
+  <si>
     <t>453200</t>
   </si>
   <si>
@@ -218,6 +437,9 @@
     <t>454000</t>
   </si>
   <si>
+    <t>454100</t>
+  </si>
+  <si>
     <t>454200</t>
   </si>
   <si>
@@ -233,25 +455,67 @@
     <t>454501</t>
   </si>
   <si>
-    <t>501000</t>
+    <t>454502</t>
+  </si>
+  <si>
+    <t>501001</t>
   </si>
   <si>
     <t>M&amp;S - Marketing and Sales</t>
   </si>
   <si>
-    <t>501001</t>
-  </si>
-  <si>
     <t>502010</t>
   </si>
   <si>
+    <t>502020</t>
+  </si>
+  <si>
+    <t>502040</t>
+  </si>
+  <si>
+    <t>502052</t>
+  </si>
+  <si>
+    <t>503001</t>
+  </si>
+  <si>
+    <t>505000</t>
+  </si>
+  <si>
+    <t>511204</t>
+  </si>
+  <si>
+    <t>511205</t>
+  </si>
+  <si>
+    <t>511404</t>
+  </si>
+  <si>
+    <t>511501</t>
+  </si>
+  <si>
+    <t>511845</t>
+  </si>
+  <si>
+    <t>511847</t>
+  </si>
+  <si>
+    <t>511902</t>
+  </si>
+  <si>
     <t>511904</t>
   </si>
   <si>
+    <t>512200</t>
+  </si>
+  <si>
     <t>513000</t>
   </si>
   <si>
-    <t>513100</t>
+    <t>513420</t>
+  </si>
+  <si>
+    <t>513701</t>
   </si>
   <si>
     <t>513830</t>
@@ -260,27 +524,63 @@
     <t>513920</t>
   </si>
   <si>
-    <t>514310</t>
+    <t>514110</t>
+  </si>
+  <si>
+    <t>514210</t>
+  </si>
+  <si>
+    <t>514440</t>
+  </si>
+  <si>
+    <t>514620</t>
   </si>
   <si>
     <t>514710</t>
   </si>
   <si>
-    <t>514792</t>
-  </si>
-  <si>
-    <t>514794</t>
-  </si>
-  <si>
-    <t>515410</t>
-  </si>
-  <si>
-    <t>518000</t>
+    <t>514720</t>
+  </si>
+  <si>
+    <t>514790</t>
+  </si>
+  <si>
+    <t>515210</t>
+  </si>
+  <si>
+    <t>515620</t>
+  </si>
+  <si>
+    <t>515710</t>
+  </si>
+  <si>
+    <t>515720</t>
+  </si>
+  <si>
+    <t>518501</t>
+  </si>
+  <si>
+    <t>519000</t>
+  </si>
+  <si>
+    <t>521100</t>
+  </si>
+  <si>
+    <t>521120</t>
   </si>
   <si>
     <t>521140</t>
   </si>
   <si>
+    <t>521220</t>
+  </si>
+  <si>
+    <t>522000</t>
+  </si>
+  <si>
+    <t>522100</t>
+  </si>
+  <si>
     <t>522200</t>
   </si>
   <si>
@@ -290,66 +590,141 @@
     <t>522500</t>
   </si>
   <si>
+    <t>522700</t>
+  </si>
+  <si>
+    <t>522730</t>
+  </si>
+  <si>
     <t>522740</t>
   </si>
   <si>
     <t>524200</t>
   </si>
   <si>
+    <t>524210</t>
+  </si>
+  <si>
+    <t>524320</t>
+  </si>
+  <si>
     <t>524410</t>
   </si>
   <si>
-    <t>524420</t>
+    <t>524440</t>
+  </si>
+  <si>
+    <t>524500</t>
   </si>
   <si>
     <t>524610</t>
   </si>
   <si>
+    <t>524620</t>
+  </si>
+  <si>
+    <t>524630</t>
+  </si>
+  <si>
     <t>524640</t>
   </si>
   <si>
+    <t>524700</t>
+  </si>
+  <si>
     <t>524710</t>
   </si>
   <si>
-    <t>52480</t>
-  </si>
-  <si>
-    <t>524830</t>
+    <t>524720</t>
+  </si>
+  <si>
+    <t>524730</t>
   </si>
   <si>
     <t>524863</t>
   </si>
   <si>
+    <t>524870</t>
+  </si>
+  <si>
+    <t>525000</t>
+  </si>
+  <si>
+    <t>525010</t>
+  </si>
+  <si>
+    <t>525020</t>
+  </si>
+  <si>
+    <t>525030</t>
+  </si>
+  <si>
     <t>526122</t>
   </si>
   <si>
     <t>526140</t>
   </si>
   <si>
-    <t>526210</t>
-  </si>
-  <si>
-    <t>526310</t>
+    <t>526211</t>
+  </si>
+  <si>
+    <t>526214</t>
+  </si>
+  <si>
+    <t>526268</t>
+  </si>
+  <si>
+    <t>526320</t>
   </si>
   <si>
     <t>526333</t>
   </si>
   <si>
+    <t>527400</t>
+  </si>
+  <si>
+    <t>527402</t>
+  </si>
+  <si>
     <t>551000</t>
   </si>
   <si>
-    <t>552120</t>
+    <t>552000</t>
+  </si>
+  <si>
+    <t>552100</t>
+  </si>
+  <si>
+    <t>552110</t>
+  </si>
+  <si>
+    <t>552200</t>
+  </si>
+  <si>
+    <t>552310</t>
+  </si>
+  <si>
+    <t>552320</t>
   </si>
   <si>
     <t>552340</t>
   </si>
   <si>
-    <t>553000</t>
+    <t>552350</t>
+  </si>
+  <si>
+    <t>552360</t>
   </si>
   <si>
     <t>553010</t>
   </si>
   <si>
+    <t>553020</t>
+  </si>
+  <si>
+    <t>553040</t>
+  </si>
+  <si>
     <t>554000</t>
   </si>
   <si>
@@ -359,12 +734,18 @@
     <t>555100</t>
   </si>
   <si>
+    <t>555200</t>
+  </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>LOG - Logistics</t>
+  </si>
+  <si>
     <t>602100</t>
   </si>
   <si>
-    <t>LOG - Logistics</t>
-  </si>
-  <si>
     <t>602220</t>
   </si>
   <si>
@@ -374,7 +755,7 @@
     <t>602400</t>
   </si>
   <si>
-    <t>612000</t>
+    <t>631000</t>
   </si>
   <si>
     <t>631100</t>
@@ -383,7 +764,10 @@
     <t>631140</t>
   </si>
   <si>
-    <t>631220</t>
+    <t>631210</t>
+  </si>
+  <si>
+    <t>632000</t>
   </si>
   <si>
     <t>632150</t>
@@ -398,37 +782,55 @@
     <t>633010</t>
   </si>
   <si>
+    <t>633020</t>
+  </si>
+  <si>
+    <t>634020</t>
+  </si>
+  <si>
     <t>641200</t>
   </si>
   <si>
-    <t>701100</t>
-  </si>
-  <si>
-    <t>701200</t>
+    <t>672012</t>
+  </si>
+  <si>
+    <t>F&amp;C - Finance and Control</t>
+  </si>
+  <si>
+    <t>672013</t>
   </si>
   <si>
     <t>702001</t>
   </si>
   <si>
+    <t>703100</t>
+  </si>
+  <si>
     <t>703200</t>
   </si>
   <si>
-    <t>713200</t>
-  </si>
-  <si>
-    <t>713404</t>
-  </si>
-  <si>
-    <t>713405</t>
+    <t>711000</t>
+  </si>
+  <si>
+    <t>713300</t>
+  </si>
+  <si>
+    <t>713402</t>
   </si>
   <si>
     <t>714020</t>
   </si>
   <si>
+    <t>714021</t>
+  </si>
+  <si>
     <t>714022</t>
   </si>
   <si>
-    <t>722000</t>
+    <t>714023</t>
+  </si>
+  <si>
+    <t>721000</t>
   </si>
   <si>
     <t>ICT - Information and Communication Technology</t>
@@ -440,9 +842,6 @@
     <t>723000</t>
   </si>
   <si>
-    <t>723002</t>
-  </si>
-  <si>
     <t>723003</t>
   </si>
   <si>
@@ -452,28 +851,28 @@
     <t>725000</t>
   </si>
   <si>
+    <t>726001</t>
+  </si>
+  <si>
     <t>726003</t>
   </si>
   <si>
     <t>726004</t>
   </si>
   <si>
+    <t>731000</t>
+  </si>
+  <si>
+    <t>R&amp;D - Research and Development</t>
+  </si>
+  <si>
     <t>732000</t>
   </si>
   <si>
-    <t>R&amp;D - Research and Development</t>
-  </si>
-  <si>
-    <t>741000</t>
-  </si>
-  <si>
-    <t>F&amp;C - Finance and Control</t>
-  </si>
-  <si>
-    <t>741210</t>
-  </si>
-  <si>
-    <t>741400</t>
+    <t>741213</t>
+  </si>
+  <si>
+    <t>741300</t>
   </si>
   <si>
     <t>741410</t>
@@ -485,16 +884,31 @@
     <t>741450</t>
   </si>
   <si>
-    <t>742050</t>
+    <t>742000</t>
+  </si>
+  <si>
+    <t>742010</t>
+  </si>
+  <si>
+    <t>742020</t>
+  </si>
+  <si>
+    <t>742030</t>
+  </si>
+  <si>
+    <t>742051</t>
   </si>
   <si>
     <t>742053</t>
   </si>
   <si>
+    <t>742054</t>
+  </si>
+  <si>
     <t>743010</t>
   </si>
   <si>
-    <t>744000</t>
+    <t>743021</t>
   </si>
   <si>
     <t>744010</t>
@@ -518,9 +932,15 @@
     <t>747010</t>
   </si>
   <si>
+    <t>747020</t>
+  </si>
+  <si>
     <t>748110</t>
   </si>
   <si>
+    <t>748200</t>
+  </si>
+  <si>
     <t>748210</t>
   </si>
   <si>
@@ -530,7 +950,7 @@
     <t>748510</t>
   </si>
   <si>
-    <t>748520</t>
+    <t>748530</t>
   </si>
   <si>
     <t>748540</t>
@@ -542,10 +962,13 @@
     <t>CS - Customer Service</t>
   </si>
   <si>
-    <t>748720</t>
-  </si>
-  <si>
-    <t>748760</t>
+    <t>748700</t>
+  </si>
+  <si>
+    <t>748710</t>
+  </si>
+  <si>
+    <t>748750</t>
   </si>
   <si>
     <t>748761</t>
@@ -563,75 +986,30 @@
     <t>748786</t>
   </si>
   <si>
-    <t>751240</t>
+    <t>751400</t>
   </si>
   <si>
     <t>G&amp;A - Governance and Administration</t>
   </si>
   <si>
-    <t>800000</t>
-  </si>
-  <si>
     <t>801010</t>
   </si>
   <si>
-    <t>801020</t>
-  </si>
-  <si>
-    <t>802120</t>
-  </si>
-  <si>
-    <t>802200</t>
-  </si>
-  <si>
-    <t>804200</t>
-  </si>
-  <si>
     <t>804220</t>
   </si>
   <si>
+    <t>804230</t>
+  </si>
+  <si>
     <t>804240</t>
   </si>
   <si>
-    <t>850000</t>
-  </si>
-  <si>
-    <t>851110</t>
-  </si>
-  <si>
-    <t>851120</t>
-  </si>
-  <si>
-    <t>851210</t>
-  </si>
-  <si>
-    <t>851220</t>
-  </si>
-  <si>
-    <t>851250</t>
-  </si>
-  <si>
-    <t>851400</t>
-  </si>
-  <si>
     <t>851420</t>
   </si>
   <si>
-    <t>851421</t>
-  </si>
-  <si>
-    <t>851423</t>
-  </si>
-  <si>
-    <t>851430</t>
-  </si>
-  <si>
     <t>851440</t>
   </si>
   <si>
-    <t>853000</t>
-  </si>
-  <si>
     <t>853100</t>
   </si>
   <si>
@@ -647,10 +1025,7 @@
     <t>853201</t>
   </si>
   <si>
-    <t>853202</t>
-  </si>
-  <si>
-    <t>853203</t>
+    <t>900100</t>
   </si>
   <si>
     <t>900200</t>
@@ -659,33 +1034,42 @@
     <t>900300</t>
   </si>
   <si>
-    <t>910000</t>
-  </si>
-  <si>
-    <t>913320</t>
-  </si>
-  <si>
-    <t>913380</t>
-  </si>
-  <si>
     <t>921100</t>
   </si>
   <si>
+    <t>921300</t>
+  </si>
+  <si>
+    <t>922000</t>
+  </si>
+  <si>
+    <t>923101</t>
+  </si>
+  <si>
     <t>923102</t>
   </si>
   <si>
+    <t>923200</t>
+  </si>
+  <si>
+    <t>923301</t>
+  </si>
+  <si>
+    <t>923410</t>
+  </si>
+  <si>
     <t>923430</t>
   </si>
   <si>
     <t>924000</t>
   </si>
   <si>
-    <t>925000</t>
-  </si>
-  <si>
     <t>925100</t>
   </si>
   <si>
+    <t>925200</t>
+  </si>
+  <si>
     <t>925300</t>
   </si>
   <si>
@@ -695,31 +1079,43 @@
     <t>926120</t>
   </si>
   <si>
-    <t>926140</t>
-  </si>
-  <si>
     <t>926160</t>
   </si>
   <si>
-    <t>926210</t>
+    <t>926220</t>
+  </si>
+  <si>
+    <t>926242</t>
   </si>
   <si>
     <t>927210</t>
   </si>
   <si>
+    <t>927220</t>
+  </si>
+  <si>
     <t>927230</t>
   </si>
   <si>
+    <t>930110</t>
+  </si>
+  <si>
+    <t>930120</t>
+  </si>
+  <si>
     <t>930200</t>
   </si>
   <si>
-    <t>930203</t>
+    <t>930201</t>
   </si>
   <si>
     <t>930300</t>
   </si>
   <si>
     <t>930500</t>
+  </si>
+  <si>
+    <t>930502</t>
   </si>
   <si>
     <t>930503</t>
@@ -765,6 +1161,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9370DB"/>
+        <bgColor rgb="FF9370DB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF20B2AA"/>
         <bgColor rgb="FF20B2AA"/>
       </patternFill>
@@ -773,12 +1175,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9ACD32"/>
         <bgColor rgb="FF9ACD32"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF9370DB"/>
-        <bgColor rgb="FF9370DB"/>
       </patternFill>
     </fill>
     <fill>
@@ -1125,14 +1521,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B224"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="A307" sqref="A307"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="1" max="1" width="32.6640625" customWidth="1"/>
+    <col min="2" max="2" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -1683,21 +2081,21 @@
       <c r="A69" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>71</v>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" s="2" t="s">
         <v>71</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>3</v>
@@ -1705,247 +2103,247 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>74</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>77</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>82</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>86</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>87</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>88</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>90</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>92</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>94</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>95</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>96</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>97</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>98</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>71</v>
+        <v>100</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>71</v>
+        <v>101</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>102</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>3</v>
@@ -1953,7 +2351,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>3</v>
@@ -1961,7 +2359,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>3</v>
@@ -1969,7 +2367,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>3</v>
@@ -1977,7 +2375,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>3</v>
@@ -1985,7 +2383,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>3</v>
@@ -1993,7 +2391,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>3</v>
@@ -2001,7 +2399,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>3</v>
@@ -2009,143 +2407,143 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" s="3" t="s">
-        <v>113</v>
+        <v>111</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>114</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>115</v>
-      </c>
-      <c r="B112" s="3" t="s">
         <v>113</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>116</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>117</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>113</v>
+        <v>115</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>118</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>113</v>
+        <v>116</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>119</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>113</v>
+        <v>117</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>120</v>
-      </c>
-      <c r="B117" s="3" t="s">
-        <v>113</v>
+        <v>118</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>121</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>122</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>113</v>
+        <v>120</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>123</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>113</v>
+        <v>121</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>124</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>71</v>
+        <v>122</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>125</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>113</v>
+        <v>123</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>126</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>71</v>
+        <v>124</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>127</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>71</v>
+        <v>125</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>128</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>71</v>
+        <v>126</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>129</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>71</v>
+        <v>127</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>3</v>
@@ -2153,7 +2551,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>3</v>
@@ -2161,7 +2559,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>3</v>
@@ -2169,7 +2567,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>3</v>
@@ -2177,7 +2575,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>3</v>
@@ -2185,711 +2583,711 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>135</v>
-      </c>
-      <c r="B132" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>137</v>
-      </c>
-      <c r="B133" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>138</v>
-      </c>
-      <c r="B134" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>139</v>
-      </c>
-      <c r="B135" s="4" t="s">
         <v>136</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>140</v>
-      </c>
-      <c r="B136" s="4" t="s">
-        <v>136</v>
+        <v>137</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>141</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>142</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>136</v>
+        <v>139</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>143</v>
-      </c>
-      <c r="B139" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>144</v>
-      </c>
-      <c r="B140" s="4" t="s">
-        <v>136</v>
+        <v>141</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>145</v>
-      </c>
-      <c r="B141" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>147</v>
-      </c>
-      <c r="B142" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>149</v>
-      </c>
-      <c r="B143" s="6" t="s">
-        <v>148</v>
+        <v>144</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>150</v>
-      </c>
-      <c r="B144" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>151</v>
-      </c>
-      <c r="B145" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>152</v>
-      </c>
-      <c r="B146" s="6" t="s">
         <v>148</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>153</v>
-      </c>
-      <c r="B147" s="6" t="s">
-        <v>148</v>
+        <v>149</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>154</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>146</v>
+        <v>150</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>155</v>
-      </c>
-      <c r="B149" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>156</v>
-      </c>
-      <c r="B150" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>160</v>
-      </c>
-      <c r="B154" s="7" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>162</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>3</v>
+        <v>157</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>163</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>3</v>
+        <v>158</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>164</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>3</v>
+        <v>159</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>165</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>3</v>
+        <v>160</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>166</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>3</v>
+        <v>161</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>167</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>3</v>
+        <v>162</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>168</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>3</v>
+        <v>163</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>169</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>3</v>
+        <v>164</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>170</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>3</v>
+        <v>165</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>171</v>
-      </c>
-      <c r="B164" s="8" t="s">
-        <v>172</v>
+        <v>166</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>173</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>3</v>
+        <v>167</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>174</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>3</v>
+        <v>168</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>175</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>3</v>
+        <v>169</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>176</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>3</v>
+        <v>170</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>177</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>3</v>
+        <v>171</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>178</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>3</v>
+        <v>172</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>179</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>180</v>
-      </c>
-      <c r="B172" s="9" t="s">
-        <v>181</v>
+        <v>174</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>182</v>
-      </c>
-      <c r="B173" s="7" t="s">
-        <v>161</v>
+        <v>175</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>183</v>
-      </c>
-      <c r="B174" s="7" t="s">
-        <v>161</v>
+        <v>176</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>184</v>
-      </c>
-      <c r="B175" s="7" t="s">
-        <v>161</v>
+        <v>177</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>185</v>
-      </c>
-      <c r="B176" s="7" t="s">
-        <v>161</v>
+        <v>178</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>186</v>
-      </c>
-      <c r="B177" s="7" t="s">
-        <v>161</v>
+        <v>179</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>187</v>
-      </c>
-      <c r="B178" s="7" t="s">
-        <v>161</v>
+        <v>180</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>188</v>
-      </c>
-      <c r="B179" s="7" t="s">
-        <v>161</v>
+        <v>181</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>189</v>
-      </c>
-      <c r="B180" s="7" t="s">
-        <v>161</v>
+        <v>182</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>190</v>
-      </c>
-      <c r="B181" s="9" t="s">
-        <v>181</v>
+        <v>183</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>191</v>
-      </c>
-      <c r="B182" s="9" t="s">
-        <v>181</v>
+        <v>184</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>192</v>
-      </c>
-      <c r="B183" s="9" t="s">
-        <v>181</v>
+        <v>185</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>193</v>
-      </c>
-      <c r="B184" s="9" t="s">
-        <v>181</v>
+        <v>186</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>194</v>
-      </c>
-      <c r="B185" s="9" t="s">
-        <v>181</v>
+        <v>187</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>195</v>
-      </c>
-      <c r="B186" s="9" t="s">
-        <v>181</v>
+        <v>188</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>196</v>
-      </c>
-      <c r="B187" s="9" t="s">
-        <v>181</v>
+        <v>189</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>197</v>
-      </c>
-      <c r="B188" s="9" t="s">
-        <v>181</v>
+        <v>190</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>198</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>181</v>
+        <v>191</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>199</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>181</v>
+        <v>192</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>200</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>181</v>
+        <v>193</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>201</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>181</v>
+        <v>194</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>202</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>181</v>
+        <v>195</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>203</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>181</v>
+        <v>196</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>204</v>
-      </c>
-      <c r="B195" s="9" t="s">
-        <v>181</v>
+        <v>197</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>205</v>
-      </c>
-      <c r="B196" s="9" t="s">
-        <v>181</v>
+        <v>198</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>206</v>
-      </c>
-      <c r="B197" s="9" t="s">
-        <v>181</v>
+        <v>199</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>207</v>
-      </c>
-      <c r="B198" s="9" t="s">
-        <v>181</v>
+        <v>200</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>208</v>
-      </c>
-      <c r="B199" s="9" t="s">
-        <v>181</v>
+        <v>201</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>209</v>
-      </c>
-      <c r="B200" s="9" t="s">
-        <v>181</v>
+        <v>202</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>210</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>3</v>
+        <v>203</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>211</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>3</v>
+        <v>204</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>212</v>
-      </c>
-      <c r="B203" s="9" t="s">
-        <v>181</v>
+        <v>205</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>213</v>
-      </c>
-      <c r="B204" s="9" t="s">
-        <v>181</v>
+        <v>206</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>214</v>
-      </c>
-      <c r="B205" s="9" t="s">
-        <v>181</v>
+        <v>207</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>226</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>71</v>
+        <v>219</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>227</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>71</v>
+        <v>220</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>228</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>71</v>
+        <v>221</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>3</v>
@@ -2897,7 +3295,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>3</v>
@@ -2905,7 +3303,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>3</v>
@@ -2913,7 +3311,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>3</v>
@@ -2921,9 +3319,1065 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>233</v>
       </c>
-      <c r="B224" s="1" t="s">
+      <c r="B231" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>240</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>258</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>259</v>
+      </c>
+      <c r="B255" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>260</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>261</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>262</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>263</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>264</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>265</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>266</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>267</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>268</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>269</v>
+      </c>
+      <c r="B265" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>271</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>273</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>275</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>276</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>281</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>282</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>283</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>285</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>286</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>287</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>288</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>289</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>290</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>291</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>292</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>293</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>295</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>296</v>
+      </c>
+      <c r="B290" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>297</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>298</v>
+      </c>
+      <c r="B292" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>300</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>302</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>303</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>304</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>305</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>306</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>307</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>308</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>309</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>310</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>311</v>
+      </c>
+      <c r="B304" s="8" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>313</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>314</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>315</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>316</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>317</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>318</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>319</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>320</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>321</v>
+      </c>
+      <c r="B313" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>323</v>
+      </c>
+      <c r="B314" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>324</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>325</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>326</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>327</v>
+      </c>
+      <c r="B318" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>328</v>
+      </c>
+      <c r="B319" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>329</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>330</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>331</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>332</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>333</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>334</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>335</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>336</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>337</v>
+      </c>
+      <c r="B328" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>338</v>
+      </c>
+      <c r="B329" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>339</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>340</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>341</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>342</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>343</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>344</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>345</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>346</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>347</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>348</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>349</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>350</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>351</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>352</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>353</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>354</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>355</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>356</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>357</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>358</v>
+      </c>
+      <c r="B349" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>359</v>
+      </c>
+      <c r="B350" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>360</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>361</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>362</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>363</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>364</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>365</v>
+      </c>
+      <c r="B356" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2934,15 +4388,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B224"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.33203125" customWidth="1"/>
-    <col min="2" max="2" width="35" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -2954,1143 +4404,1143 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>311</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>172</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>152</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>148</v>
+        <v>282</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>151</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>148</v>
+        <v>285</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>148</v>
+        <v>283</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>147</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>148</v>
+        <v>256</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>148</v>
+        <v>286</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>148</v>
+        <v>284</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>206</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>181</v>
+        <v>258</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>332</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>205</v>
+        <v>328</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>333</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>203</v>
+        <v>321</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>207</v>
+        <v>331</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>212</v>
+        <v>329</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>201</v>
+        <v>327</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>202</v>
+        <v>330</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>181</v>
+        <v>322</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>181</v>
+        <v>324</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>195</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>181</v>
+        <v>326</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>181</v>
+        <v>298</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>208</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>181</v>
+        <v>323</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>193</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>181</v>
+        <v>325</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>209</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>181</v>
+        <v>272</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>200</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>181</v>
+        <v>271</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>199</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>181</v>
+        <v>276</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>196</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>181</v>
+        <v>269</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>198</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>181</v>
+        <v>278</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>214</v>
-      </c>
-      <c r="B28" s="9" t="s">
-        <v>181</v>
+        <v>273</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>191</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>181</v>
+        <v>275</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>194</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>181</v>
+        <v>274</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>180</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>181</v>
+        <v>277</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>213</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>181</v>
+        <v>246</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>183</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>161</v>
+        <v>243</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>161</v>
+        <v>240</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>188</v>
-      </c>
-      <c r="B35" s="7" t="s">
-        <v>161</v>
+        <v>249</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>189</v>
-      </c>
-      <c r="B36" s="7" t="s">
-        <v>161</v>
+        <v>242</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>161</v>
+        <v>241</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>187</v>
-      </c>
-      <c r="B38" s="7" t="s">
-        <v>161</v>
+        <v>245</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>186</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>161</v>
+        <v>255</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>182</v>
-      </c>
-      <c r="B40" s="7" t="s">
-        <v>161</v>
+        <v>248</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>160</v>
-      </c>
-      <c r="B41" s="7" t="s">
-        <v>161</v>
+        <v>238</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>144</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>136</v>
+        <v>244</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>137</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>136</v>
+        <v>251</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>138</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>136</v>
+        <v>247</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>143</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>136</v>
+        <v>250</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>142</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>136</v>
+        <v>341</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>136</v>
+        <v>296</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>136</v>
+        <v>348</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>139</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>136</v>
+        <v>201</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B50" s="4" t="s">
-        <v>136</v>
+        <v>191</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>116</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>113</v>
+        <v>182</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>118</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>113</v>
+        <v>155</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>115</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>113</v>
+        <v>171</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>113</v>
+        <v>252</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>123</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>113</v>
+        <v>205</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>113</v>
+        <v>183</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>112</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>113</v>
+        <v>213</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>122</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>113</v>
+        <v>347</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>119</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>113</v>
+        <v>345</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>113</v>
+        <v>200</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>114</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>113</v>
+        <v>188</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>117</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>113</v>
+        <v>167</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>342</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>346</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>126</v>
+        <v>337</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>102</v>
+        <v>193</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>217</v>
+        <v>152</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>94</v>
+        <v>254</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>192</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>190</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>72</v>
+        <v>178</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>216</v>
+        <v>351</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>87</v>
+        <v>202</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>98</v>
+        <v>207</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>90</v>
+        <v>158</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>128</v>
+        <v>297</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>354</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>92</v>
+        <v>343</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>221</v>
+        <v>153</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>103</v>
+        <v>253</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>124</v>
+        <v>181</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>86</v>
+        <v>210</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>100</v>
+        <v>355</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>224</v>
+        <v>352</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>97</v>
+        <v>357</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>81</v>
+        <v>349</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>217</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>227</v>
+        <v>259</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>215</v>
+        <v>164</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>80</v>
+        <v>198</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>222</v>
+        <v>338</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>228</v>
+        <v>184</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>71</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>7</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>3</v>
+        <v>160</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>31</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>3</v>
+        <v>209</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>15</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>3</v>
+        <v>168</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>210</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>3</v>
+        <v>154</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>57</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>3</v>
+        <v>173</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>108</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>26</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>3</v>
+        <v>189</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>60</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>111</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>3</v>
+        <v>179</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>164</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>3</v>
+        <v>197</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>73</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>3</v>
+        <v>218</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>109</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>3</v>
+        <v>339</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>14</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>3</v>
+        <v>206</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>21</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>3</v>
+        <v>159</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>59</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>3</v>
+        <v>174</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>178</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>3</v>
+        <v>187</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>5</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>3</v>
+        <v>169</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>163</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>3</v>
+        <v>199</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>175</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>3</v>
+        <v>215</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>55</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>3</v>
+        <v>186</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>66</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>3</v>
+        <v>344</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>170</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>3</v>
+        <v>208</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>42</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>3</v>
+        <v>156</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>173</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>3</v>
+        <v>216</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>45</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>3</v>
+        <v>170</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>177</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>3</v>
+        <v>204</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>67</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>3</v>
+        <v>185</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>13</v>
+        <v>127</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>3</v>
@@ -4098,7 +5548,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>8</v>
+        <v>126</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>3</v>
@@ -4106,7 +5556,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>110</v>
+        <v>302</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>3</v>
@@ -4114,7 +5564,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>229</v>
+        <v>72</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>3</v>
@@ -4122,7 +5572,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>50</v>
+        <v>315</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>3</v>
@@ -4130,7 +5580,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>11</v>
+        <v>125</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>3</v>
@@ -4138,7 +5588,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>3</v>
@@ -4146,7 +5596,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>3</v>
@@ -4154,7 +5604,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>3</v>
@@ -4162,7 +5612,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>3</v>
@@ -4170,7 +5620,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>46</v>
+        <v>112</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>3</v>
@@ -4178,7 +5628,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>233</v>
+        <v>307</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>3</v>
@@ -4186,7 +5636,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>134</v>
+        <v>88</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>3</v>
@@ -4194,7 +5644,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>22</v>
+        <v>336</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>3</v>
@@ -4202,7 +5652,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>231</v>
+        <v>320</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>3</v>
@@ -4210,7 +5660,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>179</v>
+        <v>25</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>3</v>
@@ -4218,7 +5668,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>211</v>
+        <v>32</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>3</v>
@@ -4226,7 +5676,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>6</v>
+        <v>237</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>3</v>
@@ -4234,7 +5684,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>3</v>
@@ -4242,7 +5692,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>3</v>
@@ -4250,7 +5700,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>62</v>
+        <v>235</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>3</v>
@@ -4258,7 +5708,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>69</v>
+        <v>362</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>3</v>
@@ -4266,7 +5716,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>3</v>
@@ -4274,7 +5724,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>3</v>
@@ -4282,7 +5732,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>3</v>
@@ -4290,7 +5740,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>3</v>
@@ -4298,7 +5748,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>230</v>
+        <v>21</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>3</v>
@@ -4306,7 +5756,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>3</v>
@@ -4314,7 +5764,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>64</v>
+        <v>11</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>3</v>
@@ -4322,7 +5772,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>132</v>
+        <v>231</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>3</v>
@@ -4330,7 +5780,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>3</v>
@@ -4338,7 +5788,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>23</v>
+        <v>119</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>3</v>
@@ -4346,7 +5796,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>16</v>
+        <v>335</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>3</v>
@@ -4354,7 +5804,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>3</v>
@@ -4362,7 +5812,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>106</v>
+        <v>234</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>3</v>
@@ -4370,7 +5820,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>65</v>
+        <v>236</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>3</v>
@@ -4378,7 +5828,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>44</v>
+        <v>303</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>3</v>
@@ -4386,7 +5836,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>3</v>
@@ -4394,7 +5844,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>166</v>
+        <v>71</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>3</v>
@@ -4402,7 +5852,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>3</v>
@@ -4410,7 +5860,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>3</v>
@@ -4418,7 +5868,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>38</v>
+        <v>222</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>3</v>
@@ -4426,7 +5876,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>176</v>
+        <v>305</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>3</v>
@@ -4434,7 +5884,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>43</v>
+        <v>144</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>3</v>
@@ -4442,7 +5892,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>10</v>
+        <v>314</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>3</v>
@@ -4450,7 +5900,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>3</v>
@@ -4458,7 +5908,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>105</v>
+        <v>361</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>3</v>
@@ -4466,7 +5916,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>3</v>
@@ -4474,7 +5924,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>30</v>
+        <v>135</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>3</v>
@@ -4482,7 +5932,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>174</v>
+        <v>84</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>3</v>
@@ -4490,7 +5940,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>32</v>
+        <v>78</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>3</v>
@@ -4498,7 +5948,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>2</v>
+        <v>318</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>3</v>
@@ -4506,7 +5956,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>3</v>
@@ -4514,7 +5964,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>3</v>
@@ -4522,7 +5972,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>169</v>
+        <v>220</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>3</v>
@@ -4530,7 +5980,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>3</v>
@@ -4538,7 +5988,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>19</v>
+        <v>131</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>3</v>
@@ -4546,7 +5996,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>3</v>
@@ -4554,7 +6004,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>3</v>
@@ -4562,7 +6012,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>131</v>
+        <v>228</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>3</v>
@@ -4570,7 +6020,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>168</v>
+        <v>123</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>3</v>
@@ -4578,7 +6028,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>34</v>
+        <v>364</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>3</v>
@@ -4586,7 +6036,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>39</v>
+        <v>360</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>3</v>
@@ -4594,7 +6044,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>130</v>
+        <v>45</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>3</v>
@@ -4602,7 +6052,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>3</v>
@@ -4610,7 +6060,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>3</v>
@@ -4618,7 +6068,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>262</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>3</v>
@@ -4626,7 +6076,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>20</v>
+        <v>221</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>3</v>
@@ -4634,7 +6084,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>3</v>
@@ -4642,7 +6092,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>3</v>
@@ -4650,7 +6100,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>3</v>
@@ -4658,7 +6108,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>3</v>
@@ -4666,7 +6116,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>3</v>
@@ -4674,7 +6124,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>3</v>
@@ -4682,7 +6132,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>3</v>
@@ -4690,7 +6140,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>53</v>
+        <v>148</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>3</v>
@@ -4698,7 +6148,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>167</v>
+        <v>38</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>3</v>
@@ -4706,34 +6156,1090 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>145</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>146</v>
+        <v>14</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>154</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>146</v>
+        <v>61</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>155</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>146</v>
+        <v>60</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>156</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>146</v>
+        <v>265</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>2</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>359</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>79</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>63</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>51</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>15</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>129</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>27</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>99</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>233</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>85</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>363</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>8</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>28</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>76</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>40</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>35</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>358</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>31</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>54</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>267</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>29</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>81</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>12</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>111</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>139</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>67</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>55</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>225</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>114</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>48</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>313</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>134</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>122</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>334</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>300</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>58</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>263</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>149</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>91</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>52</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>219</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>4</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>18</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>66</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>105</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>34</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>317</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>106</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>39</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>224</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>68</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>142</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>138</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>93</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>140</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>87</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>223</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>77</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>64</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>304</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>16</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>70</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>92</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>226</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>115</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>268</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>130</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>128</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>150</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>306</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>118</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>74</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>24</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>49</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>104</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>98</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>137</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>65</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>96</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>47</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>26</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>37</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>136</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>133</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>266</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>124</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>117</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>232</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>59</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>20</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>319</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>33</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>69</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>309</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>42</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>83</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>110</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>310</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>44</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>264</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>230</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>107</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>103</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>95</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>80</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>229</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>62</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>120</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>227</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>75</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>132</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>53</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>94</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>82</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>19</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>89</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>116</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>13</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>90</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>101</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>279</v>
+      </c>
+      <c r="B346" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>287</v>
+      </c>
+      <c r="B347" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>294</v>
+      </c>
+      <c r="B348" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>281</v>
+      </c>
+      <c r="B349" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>291</v>
+      </c>
+      <c r="B350" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>288</v>
+      </c>
+      <c r="B351" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>289</v>
+      </c>
+      <c r="B352" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>292</v>
+      </c>
+      <c r="B353" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>293</v>
+      </c>
+      <c r="B354" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>295</v>
+      </c>
+      <c r="B355" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>290</v>
+      </c>
+      <c r="B356" s="6" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinabongiovanni/PycharmProjects/tesi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D15D62-6291-084B-8724-16034AEFF62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9ED8F2-F52D-DC42-9B92-84870D14DC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="367">
   <si>
     <t>Codice Ateco</t>
   </si>
@@ -561,6 +561,9 @@
   </si>
   <si>
     <t>519000</t>
+  </si>
+  <si>
+    <t>520000</t>
   </si>
   <si>
     <t>521100</t>
@@ -1521,16 +1524,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection activeCell="A307" sqref="A307"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="A357" sqref="A357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="32.6640625" customWidth="1"/>
-    <col min="2" max="2" width="37.5" customWidth="1"/>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -3265,8 +3268,8 @@
       <c r="A217" t="s">
         <v>219</v>
       </c>
-      <c r="B217" s="1" t="s">
-        <v>3</v>
+      <c r="B217" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -3417,16 +3420,16 @@
       <c r="A236" t="s">
         <v>238</v>
       </c>
-      <c r="B236" s="3" t="s">
-        <v>239</v>
+      <c r="B236" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -3434,7 +3437,7 @@
         <v>241</v>
       </c>
       <c r="B238" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -3442,7 +3445,7 @@
         <v>242</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -3450,7 +3453,7 @@
         <v>243</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -3458,7 +3461,7 @@
         <v>244</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -3466,7 +3469,7 @@
         <v>245</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -3474,7 +3477,7 @@
         <v>246</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -3482,7 +3485,7 @@
         <v>247</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -3490,7 +3493,7 @@
         <v>248</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -3498,7 +3501,7 @@
         <v>249</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -3506,7 +3509,7 @@
         <v>250</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
@@ -3514,15 +3517,15 @@
         <v>251</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>252</v>
       </c>
-      <c r="B249" s="2" t="s">
-        <v>146</v>
+      <c r="B249" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
@@ -3545,32 +3548,32 @@
       <c r="A252" t="s">
         <v>255</v>
       </c>
-      <c r="B252" s="3" t="s">
-        <v>239</v>
+      <c r="B252" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>256</v>
       </c>
-      <c r="B253" s="4" t="s">
-        <v>257</v>
+      <c r="B253" s="3" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>259</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>146</v>
+      <c r="B255" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
@@ -3593,8 +3596,8 @@
       <c r="A258" t="s">
         <v>262</v>
       </c>
-      <c r="B258" s="1" t="s">
-        <v>3</v>
+      <c r="B258" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
@@ -3649,16 +3652,16 @@
       <c r="A265" t="s">
         <v>269</v>
       </c>
-      <c r="B265" s="5" t="s">
-        <v>270</v>
+      <c r="B265" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
@@ -3666,7 +3669,7 @@
         <v>272</v>
       </c>
       <c r="B267" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
@@ -3674,7 +3677,7 @@
         <v>273</v>
       </c>
       <c r="B268" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
@@ -3682,7 +3685,7 @@
         <v>274</v>
       </c>
       <c r="B269" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
@@ -3690,7 +3693,7 @@
         <v>275</v>
       </c>
       <c r="B270" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
@@ -3698,7 +3701,7 @@
         <v>276</v>
       </c>
       <c r="B271" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
@@ -3706,7 +3709,7 @@
         <v>277</v>
       </c>
       <c r="B272" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -3714,31 +3717,31 @@
         <v>278</v>
       </c>
       <c r="B273" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>279</v>
       </c>
-      <c r="B274" s="6" t="s">
-        <v>280</v>
+      <c r="B274" s="5" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>282</v>
       </c>
-      <c r="B276" s="4" t="s">
-        <v>257</v>
+      <c r="B276" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
@@ -3746,7 +3749,7 @@
         <v>283</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
@@ -3754,7 +3757,7 @@
         <v>284</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
@@ -3762,7 +3765,7 @@
         <v>285</v>
       </c>
       <c r="B279" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -3770,15 +3773,15 @@
         <v>286</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>287</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>280</v>
+      <c r="B281" s="4" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
@@ -3786,7 +3789,7 @@
         <v>288</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
@@ -3794,7 +3797,7 @@
         <v>289</v>
       </c>
       <c r="B283" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
@@ -3802,7 +3805,7 @@
         <v>290</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
@@ -3810,7 +3813,7 @@
         <v>291</v>
       </c>
       <c r="B285" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
@@ -3818,7 +3821,7 @@
         <v>292</v>
       </c>
       <c r="B286" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
@@ -3826,7 +3829,7 @@
         <v>293</v>
       </c>
       <c r="B287" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
@@ -3834,7 +3837,7 @@
         <v>294</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
@@ -3842,15 +3845,15 @@
         <v>295</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>296</v>
       </c>
-      <c r="B290" s="2" t="s">
-        <v>146</v>
+      <c r="B290" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
@@ -3865,16 +3868,16 @@
       <c r="A292" t="s">
         <v>298</v>
       </c>
-      <c r="B292" s="7" t="s">
-        <v>299</v>
+      <c r="B292" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
+        <v>299</v>
+      </c>
+      <c r="B293" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="B293" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
@@ -3961,16 +3964,16 @@
       <c r="A304" t="s">
         <v>311</v>
       </c>
-      <c r="B304" s="8" t="s">
-        <v>312</v>
+      <c r="B304" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
+        <v>312</v>
+      </c>
+      <c r="B305" s="8" t="s">
         <v>313</v>
-      </c>
-      <c r="B305" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
@@ -4033,16 +4036,16 @@
       <c r="A313" t="s">
         <v>321</v>
       </c>
-      <c r="B313" s="9" t="s">
-        <v>322</v>
+      <c r="B313" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
+        <v>322</v>
+      </c>
+      <c r="B314" s="9" t="s">
         <v>323</v>
-      </c>
-      <c r="B314" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
@@ -4050,7 +4053,7 @@
         <v>324</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
@@ -4058,7 +4061,7 @@
         <v>325</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
@@ -4066,15 +4069,15 @@
         <v>326</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>327</v>
       </c>
-      <c r="B318" s="9" t="s">
-        <v>322</v>
+      <c r="B318" s="7" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
@@ -4082,7 +4085,7 @@
         <v>328</v>
       </c>
       <c r="B319" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
@@ -4090,7 +4093,7 @@
         <v>329</v>
       </c>
       <c r="B320" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
@@ -4098,7 +4101,7 @@
         <v>330</v>
       </c>
       <c r="B321" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
@@ -4106,7 +4109,7 @@
         <v>331</v>
       </c>
       <c r="B322" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
@@ -4114,7 +4117,7 @@
         <v>332</v>
       </c>
       <c r="B323" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
@@ -4122,15 +4125,15 @@
         <v>333</v>
       </c>
       <c r="B324" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>334</v>
       </c>
-      <c r="B325" s="1" t="s">
-        <v>3</v>
+      <c r="B325" s="9" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
@@ -4153,8 +4156,8 @@
       <c r="A328" t="s">
         <v>337</v>
       </c>
-      <c r="B328" s="2" t="s">
-        <v>146</v>
+      <c r="B328" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
@@ -4321,8 +4324,8 @@
       <c r="A349" t="s">
         <v>358</v>
       </c>
-      <c r="B349" s="1" t="s">
-        <v>3</v>
+      <c r="B349" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
@@ -4378,6 +4381,14 @@
         <v>365</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>366</v>
+      </c>
+      <c r="B357" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4388,11 +4399,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B356"/>
+  <dimension ref="A1:B357"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.83203125" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -4404,359 +4419,359 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>259</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>258</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>272</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>271</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>241</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>240</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>146</v>
@@ -4764,7 +4779,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>146</v>
@@ -4772,7 +4787,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>146</v>
@@ -4780,7 +4795,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>146</v>
@@ -4788,7 +4803,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>146</v>
@@ -4796,7 +4811,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>146</v>
@@ -4820,7 +4835,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>146</v>
@@ -4828,7 +4843,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>146</v>
@@ -4836,7 +4851,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>146</v>
@@ -4844,7 +4859,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>146</v>
@@ -4852,7 +4867,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>146</v>
@@ -4860,7 +4875,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>146</v>
@@ -4868,7 +4883,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>146</v>
@@ -4876,7 +4891,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>146</v>
@@ -4892,7 +4907,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>146</v>
@@ -4900,7 +4915,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>146</v>
@@ -4908,7 +4923,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>146</v>
@@ -4916,7 +4931,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>146</v>
@@ -4924,7 +4939,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>146</v>
@@ -4932,7 +4947,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>146</v>
@@ -4940,7 +4955,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>146</v>
@@ -4956,7 +4971,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>146</v>
@@ -4964,7 +4979,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>146</v>
@@ -4972,7 +4987,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>146</v>
@@ -4980,7 +4995,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>146</v>
@@ -4988,7 +5003,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>146</v>
@@ -5004,7 +5019,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>146</v>
@@ -5036,7 +5051,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>146</v>
@@ -5044,7 +5059,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>146</v>
@@ -5060,7 +5075,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>146</v>
@@ -5076,7 +5091,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>146</v>
@@ -5084,7 +5099,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>146</v>
@@ -5092,7 +5107,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>146</v>
@@ -5108,7 +5123,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>146</v>
@@ -5116,7 +5131,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>146</v>
@@ -5124,7 +5139,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>146</v>
@@ -5132,7 +5147,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>146</v>
@@ -5140,7 +5155,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>146</v>
@@ -5148,7 +5163,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>146</v>
@@ -5156,7 +5171,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>146</v>
@@ -5164,7 +5179,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>146</v>
@@ -5196,7 +5211,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>146</v>
@@ -5204,7 +5219,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>146</v>
@@ -5228,7 +5243,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>146</v>
@@ -5236,7 +5251,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>146</v>
@@ -5244,7 +5259,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>146</v>
@@ -5252,7 +5267,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B108" s="2" t="s">
         <v>146</v>
@@ -5276,7 +5291,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>146</v>
@@ -5284,7 +5299,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>146</v>
@@ -5292,7 +5307,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>146</v>
@@ -5300,7 +5315,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
@@ -5316,7 +5331,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B116" s="2" t="s">
         <v>146</v>
@@ -5332,7 +5347,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B118" s="2" t="s">
         <v>146</v>
@@ -5364,7 +5379,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>146</v>
@@ -5372,7 +5387,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B123" s="2" t="s">
         <v>146</v>
@@ -5396,7 +5411,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B126" s="2" t="s">
         <v>146</v>
@@ -5404,7 +5419,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B127" s="2" t="s">
         <v>146</v>
@@ -5412,7 +5427,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>146</v>
@@ -5420,7 +5435,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B129" s="2" t="s">
         <v>146</v>
@@ -5444,7 +5459,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>146</v>
@@ -5460,7 +5475,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B134" s="2" t="s">
         <v>146</v>
@@ -5468,7 +5483,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B135" s="2" t="s">
         <v>146</v>
@@ -5476,7 +5491,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B136" s="2" t="s">
         <v>146</v>
@@ -5484,7 +5499,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>146</v>
@@ -5492,7 +5507,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B138" s="2" t="s">
         <v>146</v>
@@ -5500,7 +5515,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="B139" s="2" t="s">
         <v>146</v>
@@ -5508,7 +5523,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>216</v>
+        <v>156</v>
       </c>
       <c r="B140" s="2" t="s">
         <v>146</v>
@@ -5516,7 +5531,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="B141" s="2" t="s">
         <v>146</v>
@@ -5524,7 +5539,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="B142" s="2" t="s">
         <v>146</v>
@@ -5532,7 +5547,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>185</v>
+        <v>205</v>
       </c>
       <c r="B143" s="2" t="s">
         <v>146</v>
@@ -5540,15 +5555,15 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>127</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>3</v>
+        <v>186</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>3</v>
@@ -5556,7 +5571,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>3</v>
@@ -5564,7 +5579,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>72</v>
+        <v>303</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>3</v>
@@ -5572,7 +5587,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>315</v>
+        <v>72</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>3</v>
@@ -5580,7 +5595,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>125</v>
+        <v>316</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>3</v>
@@ -5588,7 +5603,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>3</v>
@@ -5596,7 +5611,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>3</v>
@@ -5604,7 +5619,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>100</v>
+        <v>36</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>3</v>
@@ -5612,7 +5627,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>365</v>
+        <v>100</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>3</v>
@@ -5620,7 +5635,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>112</v>
+        <v>366</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>3</v>
@@ -5628,7 +5643,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>307</v>
+        <v>112</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>3</v>
@@ -5636,7 +5651,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>88</v>
+        <v>308</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>3</v>
@@ -5644,7 +5659,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>336</v>
+        <v>88</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>3</v>
@@ -5652,7 +5667,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>3</v>
@@ -5660,7 +5675,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>25</v>
+        <v>321</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>3</v>
@@ -5668,7 +5683,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>3</v>
@@ -5676,7 +5691,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>237</v>
+        <v>32</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>3</v>
@@ -5684,7 +5699,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>143</v>
+        <v>238</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>3</v>
@@ -5692,7 +5707,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>3</v>
@@ -5700,7 +5715,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>235</v>
+        <v>10</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>3</v>
@@ -5708,7 +5723,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>362</v>
+        <v>236</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>3</v>
@@ -5716,7 +5731,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>86</v>
+        <v>363</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>3</v>
@@ -5724,7 +5739,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>3</v>
@@ -5732,7 +5747,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>3</v>
@@ -5740,7 +5755,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>3</v>
@@ -5748,7 +5763,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>3</v>
@@ -5756,7 +5771,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>3</v>
@@ -5764,7 +5779,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>3</v>
@@ -5772,7 +5787,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>231</v>
+        <v>11</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>3</v>
@@ -5780,7 +5795,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>3</v>
@@ -5788,7 +5803,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>3</v>
@@ -5796,7 +5811,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>335</v>
+        <v>119</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>3</v>
@@ -5804,7 +5819,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>109</v>
+        <v>336</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>3</v>
@@ -5812,7 +5827,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>3</v>
@@ -5820,7 +5835,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>3</v>
@@ -5828,7 +5843,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>303</v>
+        <v>237</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>3</v>
@@ -5836,7 +5851,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>3</v>
@@ -5844,7 +5859,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>3</v>
@@ -5852,7 +5867,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>3</v>
@@ -5860,7 +5875,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>301</v>
+        <v>41</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>3</v>
@@ -5868,7 +5883,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>222</v>
+        <v>302</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>3</v>
@@ -5876,7 +5891,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>305</v>
+        <v>223</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>3</v>
@@ -5884,7 +5899,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>144</v>
+        <v>306</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>3</v>
@@ -5892,7 +5907,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>314</v>
+        <v>144</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>3</v>
@@ -5900,7 +5915,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>141</v>
+        <v>315</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>3</v>
@@ -5908,7 +5923,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>361</v>
+        <v>141</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>3</v>
@@ -5916,7 +5931,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>57</v>
+        <v>362</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>3</v>
@@ -5924,7 +5939,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>3</v>
@@ -5932,7 +5947,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>3</v>
@@ -5940,7 +5955,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>3</v>
@@ -5948,7 +5963,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>318</v>
+        <v>78</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>3</v>
@@ -5956,7 +5971,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>102</v>
+        <v>319</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>3</v>
@@ -5964,7 +5979,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>316</v>
+        <v>102</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>3</v>
@@ -5972,7 +5987,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>220</v>
+        <v>317</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>3</v>
@@ -5980,7 +5995,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>3</v>
@@ -5988,7 +6003,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>3</v>
@@ -5996,7 +6011,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>3</v>
@@ -6004,7 +6019,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>3</v>
@@ -6012,7 +6027,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>228</v>
+        <v>147</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>3</v>
@@ -6020,7 +6035,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>3</v>
@@ -6028,7 +6043,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>364</v>
+        <v>123</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>3</v>
@@ -6036,7 +6051,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>3</v>
@@ -6044,7 +6059,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>45</v>
+        <v>361</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>3</v>
@@ -6052,7 +6067,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>3</v>
@@ -6060,7 +6075,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>3</v>
@@ -6068,7 +6083,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>3</v>
@@ -6076,7 +6091,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>3</v>
@@ -6084,7 +6099,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>308</v>
+        <v>222</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>3</v>
@@ -6092,7 +6107,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>50</v>
+        <v>309</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>3</v>
@@ -6100,7 +6115,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>3</v>
@@ -6108,7 +6123,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>3</v>
@@ -6116,7 +6131,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>3</v>
@@ -6124,7 +6139,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>3</v>
@@ -6132,7 +6147,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>3</v>
@@ -6140,7 +6155,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>3</v>
@@ -6148,7 +6163,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>3</v>
@@ -6156,7 +6171,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>3</v>
@@ -6164,7 +6179,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>3</v>
@@ -6172,7 +6187,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>3</v>
@@ -6180,7 +6195,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>265</v>
+        <v>60</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>3</v>
@@ -6188,7 +6203,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>3</v>
@@ -6196,7 +6211,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>359</v>
+        <v>2</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>3</v>
@@ -6204,7 +6219,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>79</v>
+        <v>360</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>3</v>
@@ -6212,7 +6227,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>3</v>
@@ -6220,7 +6235,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>3</v>
@@ -6228,7 +6243,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>3</v>
@@ -6236,7 +6251,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>3</v>
@@ -6244,7 +6259,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>3</v>
@@ -6252,7 +6267,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>3</v>
@@ -6260,7 +6275,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>3</v>
@@ -6268,7 +6283,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>3</v>
@@ -6276,7 +6291,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>363</v>
+        <v>85</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>3</v>
@@ -6284,7 +6299,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>8</v>
+        <v>364</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>3</v>
@@ -6292,7 +6307,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>3</v>
@@ -6300,7 +6315,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>3</v>
@@ -6308,7 +6323,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>3</v>
@@ -6316,7 +6331,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>3</v>
@@ -6324,7 +6339,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>358</v>
+        <v>35</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>3</v>
@@ -6332,7 +6347,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>31</v>
+        <v>359</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>3</v>
@@ -6340,7 +6355,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>3</v>
@@ -6348,7 +6363,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>267</v>
+        <v>54</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>3</v>
@@ -6356,7 +6371,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>3</v>
@@ -6364,7 +6379,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>3</v>
@@ -6372,7 +6387,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>3</v>
@@ -6380,7 +6395,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>3</v>
@@ -6388,7 +6403,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>3</v>
@@ -6396,7 +6411,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>3</v>
@@ -6404,7 +6419,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>3</v>
@@ -6412,7 +6427,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>225</v>
+        <v>55</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>3</v>
@@ -6420,7 +6435,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>3</v>
@@ -6428,7 +6443,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>3</v>
@@ -6436,7 +6451,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>313</v>
+        <v>48</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>3</v>
@@ -6444,7 +6459,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>134</v>
+        <v>314</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>3</v>
@@ -6452,7 +6467,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>3</v>
@@ -6460,7 +6475,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>334</v>
+        <v>122</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>3</v>
@@ -6468,7 +6483,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>300</v>
+        <v>335</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>3</v>
@@ -6476,7 +6491,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>3</v>
@@ -6484,7 +6499,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>263</v>
+        <v>58</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>3</v>
@@ -6492,7 +6507,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>3</v>
@@ -6500,7 +6515,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>3</v>
@@ -6508,7 +6523,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>3</v>
@@ -6516,7 +6531,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>3</v>
@@ -6524,7 +6539,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>3</v>
@@ -6532,7 +6547,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>3</v>
@@ -6540,7 +6555,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>3</v>
@@ -6548,7 +6563,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>3</v>
@@ -6556,7 +6571,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>3</v>
@@ -6564,7 +6579,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>317</v>
+        <v>34</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>3</v>
@@ -6572,7 +6587,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>106</v>
+        <v>318</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>3</v>
@@ -6580,7 +6595,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>3</v>
@@ -6588,7 +6603,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>224</v>
+        <v>39</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>3</v>
@@ -6596,7 +6611,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>3</v>
@@ -6604,7 +6619,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>3</v>
@@ -6612,7 +6627,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>3</v>
@@ -6620,7 +6635,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>3</v>
@@ -6628,7 +6643,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>3</v>
@@ -6636,7 +6651,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>3</v>
@@ -6644,7 +6659,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>223</v>
+        <v>87</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>3</v>
@@ -6652,7 +6667,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>3</v>
@@ -6660,7 +6675,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>3</v>
@@ -6668,7 +6683,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>304</v>
+        <v>64</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>3</v>
@@ -6676,7 +6691,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>16</v>
+        <v>305</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>3</v>
@@ -6684,7 +6699,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>3</v>
@@ -6692,7 +6707,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>3</v>
@@ -6700,7 +6715,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>226</v>
+        <v>92</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>3</v>
@@ -6708,7 +6723,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>3</v>
@@ -6716,7 +6731,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>268</v>
+        <v>115</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>3</v>
@@ -6724,7 +6739,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>3</v>
@@ -6732,7 +6747,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>3</v>
@@ -6740,7 +6755,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>3</v>
@@ -6748,7 +6763,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>306</v>
+        <v>150</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>3</v>
@@ -6756,7 +6771,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>118</v>
+        <v>307</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>3</v>
@@ -6764,7 +6779,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>3</v>
@@ -6772,7 +6787,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>3</v>
@@ -6780,7 +6795,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>3</v>
@@ -6788,7 +6803,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>3</v>
@@ -6796,7 +6811,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>3</v>
@@ -6804,7 +6819,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>3</v>
@@ -6812,7 +6827,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>3</v>
@@ -6820,7 +6835,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>3</v>
@@ -6828,7 +6843,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>3</v>
@@ -6836,7 +6851,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>3</v>
@@ -6844,7 +6859,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>3</v>
@@ -6852,7 +6867,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>3</v>
@@ -6860,7 +6875,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>3</v>
@@ -6868,7 +6883,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>266</v>
+        <v>133</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>3</v>
@@ -6876,7 +6891,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>3</v>
@@ -6884,7 +6899,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>3</v>
@@ -6892,7 +6907,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>3</v>
@@ -6900,7 +6915,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>3</v>
@@ -6908,7 +6923,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>3</v>
@@ -6916,7 +6931,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>319</v>
+        <v>20</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>3</v>
@@ -6924,7 +6939,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>33</v>
+        <v>320</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>3</v>
@@ -6932,7 +6947,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>3</v>
@@ -6940,7 +6955,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>309</v>
+        <v>69</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>3</v>
@@ -6948,7 +6963,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>42</v>
+        <v>310</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>3</v>
@@ -6956,7 +6971,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>3</v>
@@ -6964,7 +6979,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>3</v>
@@ -6972,7 +6987,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>310</v>
+        <v>110</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>3</v>
@@ -6980,7 +6995,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>44</v>
+        <v>311</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>3</v>
@@ -6988,7 +7003,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>264</v>
+        <v>44</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>3</v>
@@ -6996,7 +7011,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>3</v>
@@ -7004,7 +7019,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>3</v>
@@ -7012,7 +7027,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>3</v>
@@ -7020,7 +7035,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>3</v>
@@ -7028,7 +7043,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>3</v>
@@ -7036,7 +7051,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>3</v>
@@ -7044,7 +7059,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>3</v>
@@ -7052,7 +7067,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>3</v>
@@ -7060,7 +7075,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>227</v>
+        <v>120</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>3</v>
@@ -7068,7 +7083,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>3</v>
@@ -7076,7 +7091,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>3</v>
@@ -7084,7 +7099,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>3</v>
@@ -7092,7 +7107,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>3</v>
@@ -7100,7 +7115,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>3</v>
@@ -7108,7 +7123,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>3</v>
@@ -7116,7 +7131,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>3</v>
@@ -7124,7 +7139,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>3</v>
@@ -7132,7 +7147,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>3</v>
@@ -7140,7 +7155,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>3</v>
@@ -7148,7 +7163,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>3</v>
@@ -7156,50 +7171,50 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>279</v>
-      </c>
-      <c r="B346" s="6" t="s">
-        <v>280</v>
+        <v>101</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B347" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B348" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
+        <v>295</v>
+      </c>
+      <c r="B349" s="6" t="s">
         <v>281</v>
-      </c>
-      <c r="B349" s="6" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B350" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B351" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
@@ -7207,15 +7222,15 @@
         <v>289</v>
       </c>
       <c r="B352" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B353" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
@@ -7223,23 +7238,31 @@
         <v>293</v>
       </c>
       <c r="B354" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B355" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="B356" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>291</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/output.xlsx
+++ b/output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martinabongiovanni/PycharmProjects/tesi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9ED8F2-F52D-DC42-9B92-84870D14DC76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD16C90-448D-1749-9CA7-2CA4F0DE84B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="16840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4420" yWindow="680" windowWidth="24980" windowHeight="16840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="By Codice" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="368">
   <si>
     <t>Codice Ateco</t>
   </si>
@@ -936,6 +936,9 @@
   </si>
   <si>
     <t>747020</t>
+  </si>
+  <si>
+    <t>748000</t>
   </si>
   <si>
     <t>748110</t>
@@ -1524,11 +1527,2892 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B357"/>
+  <dimension ref="A1:B358"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
-      <selection activeCell="A357" sqref="A357"/>
+    <sheetView topLeftCell="A321" workbookViewId="0">
+      <selection activeCell="A358" sqref="A358"/>
     </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>70</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>71</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>72</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>75</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>76</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>78</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>81</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>82</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>85</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>86</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>88</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>89</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>90</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>91</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>92</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>93</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>94</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>95</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>96</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>101</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>103</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>105</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>110</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>112</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>113</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>114</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>115</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>116</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>117</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>118</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>119</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>120</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>125</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>126</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>127</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>128</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>132</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>133</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>134</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>136</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>137</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>138</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>139</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>140</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>141</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>142</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>143</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>144</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>145</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>152</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>153</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>154</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>155</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>156</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>157</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>158</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>159</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>160</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>161</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>162</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>163</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>164</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>165</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>166</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>167</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>168</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>169</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>170</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>171</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>172</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>173</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>174</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>175</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>176</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>177</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>178</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>179</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>180</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>181</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>182</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>183</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>184</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>185</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>186</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>187</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>188</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>189</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>190</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>191</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>192</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>193</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>194</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>195</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>196</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>197</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>198</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>199</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>200</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>201</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>202</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>203</v>
+      </c>
+      <c r="B201" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>204</v>
+      </c>
+      <c r="B202" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>205</v>
+      </c>
+      <c r="B203" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>206</v>
+      </c>
+      <c r="B204" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>207</v>
+      </c>
+      <c r="B205" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>208</v>
+      </c>
+      <c r="B206" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>209</v>
+      </c>
+      <c r="B207" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>210</v>
+      </c>
+      <c r="B208" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>211</v>
+      </c>
+      <c r="B209" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>212</v>
+      </c>
+      <c r="B210" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>214</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>215</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>216</v>
+      </c>
+      <c r="B214" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>217</v>
+      </c>
+      <c r="B215" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>218</v>
+      </c>
+      <c r="B216" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>219</v>
+      </c>
+      <c r="B217" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>220</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>221</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>222</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>223</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>224</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>225</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>226</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>227</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>228</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>229</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>230</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>231</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>232</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>233</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
+        <v>234</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>235</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>237</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>238</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>239</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>241</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>243</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>244</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>245</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>246</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>247</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>248</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>249</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>250</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>251</v>
+      </c>
+      <c r="B248" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>252</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>253</v>
+      </c>
+      <c r="B250" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>254</v>
+      </c>
+      <c r="B251" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>255</v>
+      </c>
+      <c r="B252" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>256</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>257</v>
+      </c>
+      <c r="B254" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>259</v>
+      </c>
+      <c r="B255" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>260</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>261</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>262</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>263</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>264</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>265</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>266</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>267</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>268</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>269</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>270</v>
+      </c>
+      <c r="B266" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>272</v>
+      </c>
+      <c r="B267" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>273</v>
+      </c>
+      <c r="B268" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>274</v>
+      </c>
+      <c r="B269" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>275</v>
+      </c>
+      <c r="B270" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>276</v>
+      </c>
+      <c r="B271" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A272" t="s">
+        <v>277</v>
+      </c>
+      <c r="B272" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A273" t="s">
+        <v>278</v>
+      </c>
+      <c r="B273" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A274" t="s">
+        <v>279</v>
+      </c>
+      <c r="B274" s="5" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A275" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A276" t="s">
+        <v>282</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A277" t="s">
+        <v>283</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A278" t="s">
+        <v>284</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A279" t="s">
+        <v>285</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A280" t="s">
+        <v>286</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A281" t="s">
+        <v>287</v>
+      </c>
+      <c r="B281" s="4" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>288</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>289</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>290</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>291</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>292</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>293</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>294</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>295</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>296</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>297</v>
+      </c>
+      <c r="B291" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>298</v>
+      </c>
+      <c r="B292" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>299</v>
+      </c>
+      <c r="B293" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>301</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A295" t="s">
+        <v>302</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A296" t="s">
+        <v>303</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A297" t="s">
+        <v>304</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A298" t="s">
+        <v>305</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A299" t="s">
+        <v>306</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A300" t="s">
+        <v>307</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A301" t="s">
+        <v>308</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A302" t="s">
+        <v>309</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A303" t="s">
+        <v>310</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A304" t="s">
+        <v>311</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>312</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>313</v>
+      </c>
+      <c r="B306" s="8" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>315</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>316</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>317</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>318</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>319</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>320</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>321</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>322</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>323</v>
+      </c>
+      <c r="B315" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>325</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>326</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>327</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>328</v>
+      </c>
+      <c r="B319" s="7" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>329</v>
+      </c>
+      <c r="B320" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>330</v>
+      </c>
+      <c r="B321" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>331</v>
+      </c>
+      <c r="B322" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>332</v>
+      </c>
+      <c r="B323" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>333</v>
+      </c>
+      <c r="B324" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>334</v>
+      </c>
+      <c r="B325" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>335</v>
+      </c>
+      <c r="B326" s="9" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>336</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>337</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>338</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>339</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>340</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>341</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>342</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>343</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>344</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>345</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A337" t="s">
+        <v>346</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A338" t="s">
+        <v>347</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A339" t="s">
+        <v>348</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A340" t="s">
+        <v>349</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A341" t="s">
+        <v>350</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A342" t="s">
+        <v>351</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A343" t="s">
+        <v>352</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>353</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A345" t="s">
+        <v>354</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>355</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>356</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>357</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>358</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>359</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>360</v>
+      </c>
+      <c r="B351" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>361</v>
+      </c>
+      <c r="B352" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>362</v>
+      </c>
+      <c r="B353" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>363</v>
+      </c>
+      <c r="B354" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>364</v>
+      </c>
+      <c r="B355" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>365</v>
+      </c>
+      <c r="B356" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>366</v>
+      </c>
+      <c r="B357" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>367</v>
+      </c>
+      <c r="B358" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B358"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1546,2883 +4430,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>27</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>28</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>31</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>35</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>36</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>41</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>42</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>46</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>47</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>48</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>50</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>51</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>52</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>55</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>56</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>58</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>62</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>63</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>64</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>65</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>66</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>67</v>
-      </c>
-      <c r="B66" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>68</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>69</v>
-      </c>
-      <c r="B68" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>70</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>71</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>72</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>74</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>75</v>
-      </c>
-      <c r="B74" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>76</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>77</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>82</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>83</v>
-      </c>
-      <c r="B82" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>85</v>
-      </c>
-      <c r="B84" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>86</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>88</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>89</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>90</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>91</v>
-      </c>
-      <c r="B90" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>92</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>93</v>
-      </c>
-      <c r="B92" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>94</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>95</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>96</v>
-      </c>
-      <c r="B95" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>97</v>
-      </c>
-      <c r="B96" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="B98" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>100</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>101</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>102</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>104</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>105</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>106</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>107</v>
-      </c>
-      <c r="B106" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>108</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>109</v>
-      </c>
-      <c r="B108" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>110</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>111</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>113</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>114</v>
-      </c>
-      <c r="B113" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>115</v>
-      </c>
-      <c r="B114" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>116</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>117</v>
-      </c>
-      <c r="B116" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>118</v>
-      </c>
-      <c r="B117" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>119</v>
-      </c>
-      <c r="B118" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>120</v>
-      </c>
-      <c r="B119" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>121</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>122</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>123</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>124</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>125</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>126</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>127</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>128</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>129</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>130</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>131</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>132</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>133</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>134</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>135</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>136</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>137</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>138</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>139</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>140</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>141</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
-        <v>142</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
-        <v>143</v>
-      </c>
-      <c r="B142" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
-        <v>144</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A145" t="s">
-        <v>147</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A146" t="s">
-        <v>148</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
-        <v>149</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>150</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>152</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>153</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
-        <v>154</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
-        <v>155</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A154" t="s">
-        <v>156</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A155" t="s">
-        <v>157</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>158</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
-        <v>159</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
-        <v>160</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
-        <v>161</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
-        <v>162</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
-        <v>163</v>
-      </c>
-      <c r="B161" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A162" t="s">
-        <v>164</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A163" t="s">
-        <v>165</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
-        <v>166</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
-        <v>167</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
-        <v>168</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
-        <v>169</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
-        <v>170</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
-        <v>171</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
-        <v>172</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A171" t="s">
-        <v>173</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A172" t="s">
-        <v>174</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>175</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
-        <v>176</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
-        <v>177</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
-        <v>178</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
-        <v>179</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
-        <v>180</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A179" t="s">
-        <v>181</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A180" t="s">
-        <v>182</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A181" t="s">
-        <v>183</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
-        <v>184</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
-        <v>185</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
-        <v>186</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
-        <v>187</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
-        <v>188</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A187" t="s">
-        <v>189</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A188" t="s">
-        <v>190</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A189" t="s">
-        <v>191</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A190" t="s">
-        <v>192</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A191" t="s">
-        <v>193</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A192" t="s">
-        <v>194</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A193" t="s">
-        <v>195</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A194" t="s">
-        <v>196</v>
-      </c>
-      <c r="B194" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A195" t="s">
-        <v>197</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A196" t="s">
-        <v>198</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A197" t="s">
-        <v>199</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A198" t="s">
-        <v>200</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A199" t="s">
-        <v>201</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A200" t="s">
-        <v>202</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A201" t="s">
-        <v>203</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A202" t="s">
-        <v>204</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A203" t="s">
-        <v>205</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A204" t="s">
-        <v>206</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A205" t="s">
-        <v>207</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A206" t="s">
-        <v>208</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A207" t="s">
-        <v>209</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A208" t="s">
-        <v>210</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A209" t="s">
-        <v>211</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A210" t="s">
-        <v>212</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A211" t="s">
-        <v>213</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A212" t="s">
-        <v>214</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A213" t="s">
-        <v>215</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A214" t="s">
-        <v>216</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A215" t="s">
-        <v>217</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A216" t="s">
-        <v>218</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A217" t="s">
-        <v>219</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A218" t="s">
-        <v>220</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A219" t="s">
-        <v>221</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A220" t="s">
-        <v>222</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A221" t="s">
-        <v>223</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A222" t="s">
-        <v>224</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A223" t="s">
-        <v>225</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>226</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A225" t="s">
-        <v>227</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A226" t="s">
-        <v>228</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A227" t="s">
-        <v>229</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A228" t="s">
-        <v>230</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>231</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
-        <v>232</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>233</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>234</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>235</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>236</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>237</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>238</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>239</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>241</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A239" t="s">
-        <v>242</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A240" t="s">
-        <v>243</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A241" t="s">
-        <v>244</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A242" t="s">
-        <v>245</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A243" t="s">
-        <v>246</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A244" t="s">
-        <v>247</v>
-      </c>
-      <c r="B244" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A245" t="s">
-        <v>248</v>
-      </c>
-      <c r="B245" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A246" t="s">
-        <v>249</v>
-      </c>
-      <c r="B246" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A247" t="s">
-        <v>250</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A248" t="s">
-        <v>251</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A249" t="s">
-        <v>252</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A250" t="s">
-        <v>253</v>
-      </c>
-      <c r="B250" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A251" t="s">
-        <v>254</v>
-      </c>
-      <c r="B251" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A252" t="s">
-        <v>255</v>
-      </c>
-      <c r="B252" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A253" t="s">
-        <v>256</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A254" t="s">
-        <v>257</v>
-      </c>
-      <c r="B254" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A255" t="s">
-        <v>259</v>
-      </c>
-      <c r="B255" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A256" t="s">
-        <v>260</v>
-      </c>
-      <c r="B256" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A257" t="s">
-        <v>261</v>
-      </c>
-      <c r="B257" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A258" t="s">
-        <v>262</v>
-      </c>
-      <c r="B258" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A259" t="s">
-        <v>263</v>
-      </c>
-      <c r="B259" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A260" t="s">
-        <v>264</v>
-      </c>
-      <c r="B260" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A261" t="s">
-        <v>265</v>
-      </c>
-      <c r="B261" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A262" t="s">
-        <v>266</v>
-      </c>
-      <c r="B262" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A263" t="s">
-        <v>267</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A264" t="s">
-        <v>268</v>
-      </c>
-      <c r="B264" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>269</v>
-      </c>
-      <c r="B265" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A266" t="s">
-        <v>270</v>
-      </c>
-      <c r="B266" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A267" t="s">
-        <v>272</v>
-      </c>
-      <c r="B267" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A268" t="s">
-        <v>273</v>
-      </c>
-      <c r="B268" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A269" t="s">
-        <v>274</v>
-      </c>
-      <c r="B269" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A270" t="s">
-        <v>275</v>
-      </c>
-      <c r="B270" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A271" t="s">
-        <v>276</v>
-      </c>
-      <c r="B271" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A272" t="s">
-        <v>277</v>
-      </c>
-      <c r="B272" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A273" t="s">
-        <v>278</v>
-      </c>
-      <c r="B273" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A274" t="s">
-        <v>279</v>
-      </c>
-      <c r="B274" s="5" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A275" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A276" t="s">
-        <v>282</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A277" t="s">
-        <v>283</v>
-      </c>
-      <c r="B277" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A278" t="s">
-        <v>284</v>
-      </c>
-      <c r="B278" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A279" t="s">
-        <v>285</v>
-      </c>
-      <c r="B279" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A280" t="s">
-        <v>286</v>
-      </c>
-      <c r="B280" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A281" t="s">
-        <v>287</v>
-      </c>
-      <c r="B281" s="4" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A282" t="s">
-        <v>288</v>
-      </c>
-      <c r="B282" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A283" t="s">
-        <v>289</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A284" t="s">
-        <v>290</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A285" t="s">
-        <v>291</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A286" t="s">
-        <v>292</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A287" t="s">
-        <v>293</v>
-      </c>
-      <c r="B287" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A288" t="s">
-        <v>294</v>
-      </c>
-      <c r="B288" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A289" t="s">
-        <v>295</v>
-      </c>
-      <c r="B289" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A290" t="s">
-        <v>296</v>
-      </c>
-      <c r="B290" s="6" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A291" t="s">
-        <v>297</v>
-      </c>
-      <c r="B291" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A292" t="s">
-        <v>298</v>
-      </c>
-      <c r="B292" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A293" t="s">
-        <v>299</v>
-      </c>
-      <c r="B293" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A294" t="s">
-        <v>301</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A295" t="s">
-        <v>302</v>
-      </c>
-      <c r="B295" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A296" t="s">
-        <v>303</v>
-      </c>
-      <c r="B296" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A297" t="s">
-        <v>304</v>
-      </c>
-      <c r="B297" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A298" t="s">
-        <v>305</v>
-      </c>
-      <c r="B298" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A299" t="s">
-        <v>306</v>
-      </c>
-      <c r="B299" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A300" t="s">
-        <v>307</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A301" t="s">
-        <v>308</v>
-      </c>
-      <c r="B301" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A302" t="s">
-        <v>309</v>
-      </c>
-      <c r="B302" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A303" t="s">
-        <v>310</v>
-      </c>
-      <c r="B303" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A304" t="s">
-        <v>311</v>
-      </c>
-      <c r="B304" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A305" t="s">
-        <v>312</v>
-      </c>
-      <c r="B305" s="8" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A306" t="s">
+      <c r="B2" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="B306" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A307" t="s">
-        <v>315</v>
-      </c>
-      <c r="B307" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A308" t="s">
-        <v>316</v>
-      </c>
-      <c r="B308" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A309" t="s">
-        <v>317</v>
-      </c>
-      <c r="B309" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A310" t="s">
-        <v>318</v>
-      </c>
-      <c r="B310" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A311" t="s">
-        <v>319</v>
-      </c>
-      <c r="B311" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A312" t="s">
-        <v>320</v>
-      </c>
-      <c r="B312" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A313" t="s">
-        <v>321</v>
-      </c>
-      <c r="B313" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A314" t="s">
-        <v>322</v>
-      </c>
-      <c r="B314" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A315" t="s">
-        <v>324</v>
-      </c>
-      <c r="B315" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A316" t="s">
-        <v>325</v>
-      </c>
-      <c r="B316" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A317" t="s">
-        <v>326</v>
-      </c>
-      <c r="B317" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A318" t="s">
-        <v>327</v>
-      </c>
-      <c r="B318" s="7" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A319" t="s">
-        <v>328</v>
-      </c>
-      <c r="B319" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A320" t="s">
-        <v>329</v>
-      </c>
-      <c r="B320" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A321" t="s">
-        <v>330</v>
-      </c>
-      <c r="B321" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A322" t="s">
-        <v>331</v>
-      </c>
-      <c r="B322" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A323" t="s">
-        <v>332</v>
-      </c>
-      <c r="B323" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A324" t="s">
-        <v>333</v>
-      </c>
-      <c r="B324" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A325" t="s">
-        <v>334</v>
-      </c>
-      <c r="B325" s="9" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A326" t="s">
-        <v>335</v>
-      </c>
-      <c r="B326" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A327" t="s">
-        <v>336</v>
-      </c>
-      <c r="B327" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A328" t="s">
-        <v>337</v>
-      </c>
-      <c r="B328" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A329" t="s">
-        <v>338</v>
-      </c>
-      <c r="B329" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A330" t="s">
-        <v>339</v>
-      </c>
-      <c r="B330" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A331" t="s">
-        <v>340</v>
-      </c>
-      <c r="B331" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A332" t="s">
-        <v>341</v>
-      </c>
-      <c r="B332" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A333" t="s">
-        <v>342</v>
-      </c>
-      <c r="B333" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A334" t="s">
-        <v>343</v>
-      </c>
-      <c r="B334" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A335" t="s">
-        <v>344</v>
-      </c>
-      <c r="B335" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A336" t="s">
-        <v>345</v>
-      </c>
-      <c r="B336" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A337" t="s">
-        <v>346</v>
-      </c>
-      <c r="B337" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A338" t="s">
-        <v>347</v>
-      </c>
-      <c r="B338" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A339" t="s">
-        <v>348</v>
-      </c>
-      <c r="B339" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A340" t="s">
-        <v>349</v>
-      </c>
-      <c r="B340" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A341" t="s">
-        <v>350</v>
-      </c>
-      <c r="B341" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A342" t="s">
-        <v>351</v>
-      </c>
-      <c r="B342" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>352</v>
-      </c>
-      <c r="B343" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A344" t="s">
-        <v>353</v>
-      </c>
-      <c r="B344" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A345" t="s">
-        <v>354</v>
-      </c>
-      <c r="B345" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A346" t="s">
-        <v>355</v>
-      </c>
-      <c r="B346" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>356</v>
-      </c>
-      <c r="B347" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A348" t="s">
-        <v>357</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A349" t="s">
-        <v>358</v>
-      </c>
-      <c r="B349" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A350" t="s">
-        <v>359</v>
-      </c>
-      <c r="B350" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>360</v>
-      </c>
-      <c r="B351" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A352" t="s">
-        <v>361</v>
-      </c>
-      <c r="B352" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A353" t="s">
-        <v>362</v>
-      </c>
-      <c r="B353" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A354" t="s">
-        <v>363</v>
-      </c>
-      <c r="B354" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>364</v>
-      </c>
-      <c r="B355" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A356" t="s">
-        <v>365</v>
-      </c>
-      <c r="B356" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A357" t="s">
-        <v>366</v>
-      </c>
-      <c r="B357" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B357"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="14.83203125" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>312</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -4483,71 +4494,71 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>300</v>
@@ -4555,7 +4566,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B19" s="7" t="s">
         <v>300</v>
@@ -4571,7 +4582,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>300</v>
@@ -4579,7 +4590,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>300</v>
@@ -4771,7 +4782,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>146</v>
@@ -4787,7 +4798,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>146</v>
@@ -4867,7 +4878,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>146</v>
@@ -4875,7 +4886,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>146</v>
@@ -4915,7 +4926,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>146</v>
@@ -4923,7 +4934,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>146</v>
@@ -4931,7 +4942,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>146</v>
@@ -4971,7 +4982,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>146</v>
@@ -5051,7 +5062,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>146</v>
@@ -5099,7 +5110,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>146</v>
@@ -5107,7 +5118,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>146</v>
@@ -5147,7 +5158,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>146</v>
@@ -5171,7 +5182,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B96" s="2" t="s">
         <v>146</v>
@@ -5179,7 +5190,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B97" s="2" t="s">
         <v>146</v>
@@ -5211,7 +5222,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B101" s="2" t="s">
         <v>146</v>
@@ -5219,7 +5230,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>146</v>
@@ -5243,7 +5254,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>146</v>
@@ -5307,7 +5318,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>146</v>
@@ -5315,7 +5326,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>146</v>
@@ -5427,7 +5438,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B128" s="2" t="s">
         <v>146</v>
@@ -5499,7 +5510,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B137" s="2" t="s">
         <v>146</v>
@@ -5595,7 +5606,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>3</v>
@@ -5635,7 +5646,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>3</v>
@@ -5651,7 +5662,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>3</v>
@@ -5667,7 +5678,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>3</v>
@@ -5675,7 +5686,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>3</v>
@@ -5715,7 +5726,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>10</v>
+        <v>305</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>3</v>
@@ -5723,7 +5734,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>236</v>
+        <v>10</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>3</v>
@@ -5731,7 +5742,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>363</v>
+        <v>236</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>3</v>
@@ -5739,7 +5750,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>86</v>
+        <v>364</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>3</v>
@@ -5747,7 +5758,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>17</v>
+        <v>86</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>3</v>
@@ -5755,7 +5766,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>3</v>
@@ -5763,7 +5774,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>3</v>
@@ -5771,7 +5782,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>3</v>
@@ -5779,7 +5790,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>3</v>
@@ -5787,7 +5798,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>3</v>
@@ -5795,7 +5806,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>232</v>
+        <v>11</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>3</v>
@@ -5803,7 +5814,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>22</v>
+        <v>232</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>3</v>
@@ -5811,7 +5822,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>3</v>
@@ -5819,7 +5830,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>336</v>
+        <v>119</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>3</v>
@@ -5827,7 +5838,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>109</v>
+        <v>337</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>3</v>
@@ -5835,7 +5846,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>235</v>
+        <v>109</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>3</v>
@@ -5843,7 +5854,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>3</v>
@@ -5851,7 +5862,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>304</v>
+        <v>237</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>3</v>
@@ -5859,7 +5870,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>113</v>
+        <v>304</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>3</v>
@@ -5867,7 +5878,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>3</v>
@@ -5875,7 +5886,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>3</v>
@@ -5883,7 +5894,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>3</v>
@@ -5891,7 +5902,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>223</v>
+        <v>302</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>3</v>
@@ -5899,7 +5910,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>306</v>
+        <v>223</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>3</v>
@@ -5907,7 +5918,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>144</v>
+        <v>307</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>3</v>
@@ -5915,7 +5926,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>315</v>
+        <v>144</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>3</v>
@@ -5923,7 +5934,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>141</v>
+        <v>316</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>3</v>
@@ -5931,7 +5942,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>362</v>
+        <v>141</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>3</v>
@@ -5939,7 +5950,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>57</v>
+        <v>363</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>3</v>
@@ -5947,7 +5958,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>135</v>
+        <v>57</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>3</v>
@@ -5955,7 +5966,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>3</v>
@@ -5963,7 +5974,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>3</v>
@@ -5971,7 +5982,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>319</v>
+        <v>78</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>3</v>
@@ -5979,7 +5990,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>102</v>
+        <v>320</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>3</v>
@@ -5987,7 +5998,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>317</v>
+        <v>102</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>3</v>
@@ -5995,7 +6006,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>221</v>
+        <v>318</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>3</v>
@@ -6003,7 +6014,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>43</v>
+        <v>221</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>3</v>
@@ -6011,7 +6022,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>131</v>
+        <v>43</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>3</v>
@@ -6019,7 +6030,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>3</v>
@@ -6027,7 +6038,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>147</v>
+        <v>108</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>3</v>
@@ -6035,7 +6046,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>229</v>
+        <v>147</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>3</v>
@@ -6043,7 +6054,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>3</v>
@@ -6051,7 +6062,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>365</v>
+        <v>123</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>3</v>
@@ -6059,7 +6070,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>3</v>
@@ -6067,7 +6078,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>45</v>
+        <v>362</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>3</v>
@@ -6075,7 +6086,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>3</v>
@@ -6083,7 +6094,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>3</v>
@@ -6091,7 +6102,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>263</v>
+        <v>46</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>3</v>
@@ -6099,7 +6110,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>222</v>
+        <v>263</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>3</v>
@@ -6107,7 +6118,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>309</v>
+        <v>222</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>3</v>
@@ -6115,7 +6126,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>50</v>
+        <v>310</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>3</v>
@@ -6123,7 +6134,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>3</v>
@@ -6131,7 +6142,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>3</v>
@@ -6139,7 +6150,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>3</v>
@@ -6147,7 +6158,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>3</v>
@@ -6155,7 +6166,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>121</v>
+        <v>6</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>3</v>
@@ -6163,7 +6174,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>3</v>
@@ -6171,7 +6182,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>38</v>
+        <v>148</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>3</v>
@@ -6179,7 +6190,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>3</v>
@@ -6187,7 +6198,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>3</v>
@@ -6195,7 +6206,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>3</v>
@@ -6203,7 +6214,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>266</v>
+        <v>60</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>3</v>
@@ -6211,7 +6222,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>2</v>
+        <v>266</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>3</v>
@@ -6219,7 +6230,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>360</v>
+        <v>2</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>3</v>
@@ -6227,7 +6238,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>79</v>
+        <v>361</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>3</v>
@@ -6235,7 +6246,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>3</v>
@@ -6243,7 +6254,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>3</v>
@@ -6251,7 +6262,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>15</v>
+        <v>51</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>3</v>
@@ -6259,7 +6270,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>3</v>
@@ -6267,7 +6278,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>3</v>
@@ -6275,7 +6286,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>3</v>
@@ -6283,7 +6294,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>234</v>
+        <v>99</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>3</v>
@@ -6291,7 +6302,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>85</v>
+        <v>234</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>3</v>
@@ -6299,7 +6310,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
-        <v>364</v>
+        <v>85</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>3</v>
@@ -6307,7 +6318,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>8</v>
+        <v>365</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>3</v>
@@ -6315,7 +6326,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>3</v>
@@ -6323,7 +6334,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>3</v>
@@ -6331,7 +6342,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>3</v>
@@ -6339,7 +6350,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>3</v>
@@ -6347,7 +6358,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>359</v>
+        <v>35</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>3</v>
@@ -6355,7 +6366,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>31</v>
+        <v>360</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>3</v>
@@ -6363,7 +6374,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>54</v>
+        <v>31</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>3</v>
@@ -6371,7 +6382,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>268</v>
+        <v>54</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>3</v>
@@ -6379,7 +6390,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>29</v>
+        <v>268</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>3</v>
@@ -6387,7 +6398,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>3</v>
@@ -6395,7 +6406,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>3</v>
@@ -6403,7 +6414,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>3</v>
@@ -6411,7 +6422,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>139</v>
+        <v>111</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>3</v>
@@ -6419,7 +6430,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>3</v>
@@ -6427,7 +6438,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>3</v>
@@ -6435,7 +6446,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>226</v>
+        <v>55</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>3</v>
@@ -6443,7 +6454,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>3</v>
@@ -6451,7 +6462,7 @@
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>3</v>
@@ -6459,7 +6470,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>314</v>
+        <v>48</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>3</v>
@@ -6467,7 +6478,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>134</v>
+        <v>315</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>3</v>
@@ -6475,7 +6486,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>3</v>
@@ -6483,7 +6494,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>335</v>
+        <v>122</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>3</v>
@@ -6491,7 +6502,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>301</v>
+        <v>336</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>3</v>
@@ -6499,7 +6510,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>3</v>
@@ -6507,7 +6518,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>3</v>
@@ -6515,7 +6526,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>3</v>
@@ -6523,7 +6534,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>91</v>
+        <v>149</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>3</v>
@@ -6531,7 +6542,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>3</v>
@@ -6539,7 +6550,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>3</v>
@@ -6547,7 +6558,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>4</v>
+        <v>220</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>3</v>
@@ -6555,7 +6566,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>3</v>
@@ -6563,7 +6574,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>3</v>
@@ -6571,7 +6582,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>3</v>
@@ -6579,7 +6590,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>3</v>
@@ -6587,7 +6598,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>318</v>
+        <v>34</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>3</v>
@@ -6595,7 +6606,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>106</v>
+        <v>319</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>3</v>
@@ -6603,7 +6614,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>3</v>
@@ -6611,7 +6622,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>225</v>
+        <v>39</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>3</v>
@@ -6619,7 +6630,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>68</v>
+        <v>225</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>3</v>
@@ -6627,7 +6638,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>142</v>
+        <v>68</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>3</v>
@@ -6635,7 +6646,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>3</v>
@@ -6643,7 +6654,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>93</v>
+        <v>138</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>3</v>
@@ -6651,7 +6662,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>140</v>
+        <v>93</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>3</v>
@@ -6659,7 +6670,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>87</v>
+        <v>140</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>3</v>
@@ -6667,7 +6678,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>224</v>
+        <v>87</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>3</v>
@@ -6675,7 +6686,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>77</v>
+        <v>224</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>3</v>
@@ -6683,7 +6694,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>3</v>
@@ -6691,7 +6702,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>305</v>
+        <v>64</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>3</v>
@@ -6699,7 +6710,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>16</v>
+        <v>306</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>3</v>
@@ -6707,7 +6718,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>3</v>
@@ -6715,7 +6726,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>3</v>
@@ -6723,7 +6734,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>227</v>
+        <v>92</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>3</v>
@@ -6731,7 +6742,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>115</v>
+        <v>227</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>3</v>
@@ -6739,7 +6750,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>269</v>
+        <v>115</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>3</v>
@@ -6747,7 +6758,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>3</v>
@@ -6755,7 +6766,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>3</v>
@@ -6763,7 +6774,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>3</v>
@@ -6771,7 +6782,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>307</v>
+        <v>150</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>3</v>
@@ -6779,7 +6790,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>118</v>
+        <v>308</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>3</v>
@@ -6787,7 +6798,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>3</v>
@@ -6795,7 +6806,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>3</v>
@@ -6803,7 +6814,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>3</v>
@@ -6811,7 +6822,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>104</v>
+        <v>49</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>3</v>
@@ -6819,7 +6830,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>3</v>
@@ -6827,7 +6838,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>137</v>
+        <v>98</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>3</v>
@@ -6835,7 +6846,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>3</v>
@@ -6843,7 +6854,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>3</v>
@@ -6851,7 +6862,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>3</v>
@@ -6859,7 +6870,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>3</v>
@@ -6867,7 +6878,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>3</v>
@@ -6875,7 +6886,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>3</v>
@@ -6883,7 +6894,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>3</v>
@@ -6891,7 +6902,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>267</v>
+        <v>133</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>3</v>
@@ -6899,7 +6910,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>124</v>
+        <v>267</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>3</v>
@@ -6907,7 +6918,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>3</v>
@@ -6915,7 +6926,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>233</v>
+        <v>117</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>3</v>
@@ -6923,7 +6934,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>59</v>
+        <v>233</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>3</v>
@@ -6931,7 +6942,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>3</v>
@@ -6939,7 +6950,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>320</v>
+        <v>20</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>3</v>
@@ -6947,7 +6958,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>33</v>
+        <v>321</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>3</v>
@@ -6955,7 +6966,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>3</v>
@@ -6963,7 +6974,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>310</v>
+        <v>69</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>3</v>
@@ -6971,7 +6982,7 @@
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>42</v>
+        <v>311</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>3</v>
@@ -6979,7 +6990,7 @@
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>3</v>
@@ -6987,7 +6998,7 @@
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>3</v>
@@ -6995,7 +7006,7 @@
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>311</v>
+        <v>110</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>3</v>
@@ -7003,7 +7014,7 @@
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>44</v>
+        <v>312</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>3</v>
@@ -7011,7 +7022,7 @@
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>265</v>
+        <v>44</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>3</v>
@@ -7019,7 +7030,7 @@
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>231</v>
+        <v>265</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>3</v>
@@ -7027,7 +7038,7 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>107</v>
+        <v>231</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>3</v>
@@ -7035,7 +7046,7 @@
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>3</v>
@@ -7043,7 +7054,7 @@
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>3</v>
@@ -7051,7 +7062,7 @@
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>3</v>
@@ -7059,7 +7070,7 @@
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>3</v>
@@ -7067,7 +7078,7 @@
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>62</v>
+        <v>230</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>3</v>
@@ -7075,7 +7086,7 @@
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>3</v>
@@ -7083,7 +7094,7 @@
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>228</v>
+        <v>120</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>3</v>
@@ -7091,7 +7102,7 @@
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>75</v>
+        <v>228</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>3</v>
@@ -7099,7 +7110,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>132</v>
+        <v>75</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>3</v>
@@ -7107,7 +7118,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>53</v>
+        <v>132</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>3</v>
@@ -7115,7 +7126,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>94</v>
+        <v>53</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>3</v>
@@ -7123,7 +7134,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>3</v>
@@ -7131,7 +7142,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>3</v>
@@ -7139,7 +7150,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>3</v>
@@ -7147,7 +7158,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>3</v>
@@ -7155,7 +7166,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>3</v>
@@ -7163,7 +7174,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>3</v>
@@ -7171,7 +7182,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>3</v>
@@ -7179,15 +7190,15 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>280</v>
-      </c>
-      <c r="B347" s="6" t="s">
-        <v>281</v>
+        <v>101</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B348" s="6" t="s">
         <v>281</v>
@@ -7195,7 +7206,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="B349" s="6" t="s">
         <v>281</v>
@@ -7203,7 +7214,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B350" s="6" t="s">
         <v>281</v>
@@ -7211,7 +7222,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B351" s="6" t="s">
         <v>281</v>
@@ -7219,7 +7230,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B352" s="6" t="s">
         <v>281</v>
@@ -7227,7 +7238,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B353" s="6" t="s">
         <v>281</v>
@@ -7235,7 +7246,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B354" s="6" t="s">
         <v>281</v>
@@ -7243,7 +7254,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B355" s="6" t="s">
         <v>281</v>
@@ -7251,7 +7262,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B356" s="6" t="s">
         <v>281</v>
@@ -7259,9 +7270,17 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
+        <v>296</v>
+      </c>
+      <c r="B357" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
         <v>291</v>
       </c>
-      <c r="B357" s="6" t="s">
+      <c r="B358" s="6" t="s">
         <v>281</v>
       </c>
     </row>
